--- a/Gildan Activewear DCF - GIL.xlsx
+++ b/Gildan Activewear DCF - GIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\GIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F8332-B420-460E-9F51-F2A8602611DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15640DCA-33E4-4C1B-98D1-E86C3AB696D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2F41FD0B-7C66-4A6B-A044-514139CB1E78}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="debt" sheetId="10" r:id="rId5"/>
     <sheet name="wacc" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="500" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +114,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Assumption:</t>
+          <t xml:space="preserve">Assumption: 
+</t>
         </r>
         <r>
           <rPr>
@@ -123,7 +124,27 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Long term management target of 30% is really long term. It's difficult to squeeze margins in this deflationary industry and it will likely all come from Bangladesh.</t>
+          <t>Base Case</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Management target of 30% will co-incide with Bangladesh plant.
+Bull Cash: No only does GIL hit 30%, but second plant unlocks 2.5% which is based on ~(30% - 2018 GM figure)</t>
         </r>
       </text>
     </comment>
@@ -148,7 +169,7 @@
           </rPr>
           <t>Management indicates a 12% target.
 Base case: assume this occurs when the Bangladesh expasion is fully online. Bangladesh costs 1/4 of Honduras production according to mgmt, it is likely this is what they are referring to as the driver for cost reduction.
-Bull case: 2020 restucruting effects are profound and lasting</t>
+Bull case: 2020 restucruting effects are nearly immediate and lasting</t>
         </r>
       </text>
     </comment>
@@ -334,7 +355,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>There is no indication that this will improve or change in the future. Keeping it the same. Also keeping impairments the same.</t>
+          <t xml:space="preserve">
+Bull + Base Case: Due to COVID-19 this will return to 2019 levels</t>
         </r>
       </text>
     </comment>
@@ -348,7 +370,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Assumption: </t>
+          <t xml:space="preserve">Assumption: 
+</t>
         </r>
         <r>
           <rPr>
@@ -357,7 +380,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Keep this at 2020 levels where mgmt has reduced their SKU's. This reflects an improvement in product portfolio, which has translated into higher DIO. Assume they keep operating with "Back to Basics" strategy.</t>
+          <t>Base Case: Back to Basics product SKU reductions have an limited effect on turns, restoring them to 2019 levels
+Bull Case: Back to Basics product SKU reductions have an positive effect on turns, restoring them to 2018 levels</t>
         </r>
       </text>
     </comment>
@@ -720,7 +744,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Management indicates 4% range. Year 2 onwards I revert to 3.5 % which historically supported a 5% y/y revenue growth rate (as forecasted)</t>
+          <t>Management indicates 4% range. Year 2 onwards I revert to 3.5 % which historically supported a 6% y/y revenue growth rate (as forecasted)</t>
         </r>
       </text>
     </comment>
@@ -869,7 +893,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Historical 5% y/y growth is sustainable. I think this is optimisitic.
+          <t xml:space="preserve"> Historical 6% y/y growth is sustainable. I think this is optimisitic.
 </t>
         </r>
       </text>
@@ -1117,7 +1141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="313">
   <si>
     <t>Net sales</t>
   </si>
@@ -2050,6 +2074,12 @@
   </si>
   <si>
     <t>Author:</t>
+  </si>
+  <si>
+    <t>Adj. Gross Profit Margins</t>
+  </si>
+  <si>
+    <t>Inventory Turns</t>
   </si>
 </sst>
 </file>
@@ -2452,7 +2482,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2877,44 +2907,20 @@
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2940,6 +2946,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3458,19 +3497,19 @@
       <c r="J2" s="190"/>
       <c r="K2" s="190"/>
       <c r="L2" s="190"/>
-      <c r="U2" s="262" t="s">
+      <c r="U2" s="254" t="s">
         <v>303</v>
       </c>
-      <c r="V2" s="262"/>
-      <c r="X2" s="247" t="s">
+      <c r="V2" s="254"/>
+      <c r="X2" s="258" t="s">
         <v>298</v>
       </c>
-      <c r="Y2" s="247"/>
-      <c r="Z2" s="247"/>
-      <c r="AA2" s="247"/>
-      <c r="AB2" s="247"/>
-      <c r="AC2" s="247"/>
-      <c r="AD2" s="247"/>
+      <c r="Y2" s="258"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="258"/>
+      <c r="AB2" s="258"/>
+      <c r="AC2" s="258"/>
+      <c r="AD2" s="258"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="165"/>
@@ -3513,10 +3552,10 @@
       <c r="N3" s="213" t="s">
         <v>184</v>
       </c>
-      <c r="U3" s="257" t="s">
+      <c r="U3" s="249" t="s">
         <v>302</v>
       </c>
-      <c r="V3" s="257"/>
+      <c r="V3" s="249"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="165"/>
@@ -3541,41 +3580,41 @@
       </c>
       <c r="H4" s="96">
         <f>CHOOSE($U$4,growth!F24,growth!F25)</f>
-        <v>2746946.4750000001</v>
+        <v>2773107.87</v>
       </c>
       <c r="I4" s="96">
         <f>CHOOSE($U$4,growth!G24,growth!G25)</f>
-        <v>3259293.7987500001</v>
+        <v>3314494.3422000003</v>
       </c>
       <c r="J4" s="96">
         <f>CHOOSE($U$4,growth!H24,growth!H25)</f>
-        <v>3547258.4886875004</v>
+        <v>3638364.0027320003</v>
       </c>
       <c r="K4" s="96">
         <f>CHOOSE($U$4,growth!I24,growth!I25)</f>
-        <v>3724621.4131218754</v>
+        <v>3856665.8428959204</v>
       </c>
       <c r="L4" s="96">
         <f>K4*(1+L5)</f>
-        <v>3836360.0555155319</v>
+        <v>3933799.159753839</v>
       </c>
       <c r="M4" s="196">
-        <f>POWER(L4/G4,1/(COUNT(G4:L4)-1))-1</f>
-        <v>7.9572199832457668E-2</v>
-      </c>
-      <c r="U4" s="258">
+        <f>POWER(K4/G4,1/(COUNT(G4:K4)-1))-1</f>
+        <v>0.10188882432055801</v>
+      </c>
+      <c r="U4" s="250">
         <v>1</v>
       </c>
-      <c r="V4" s="259"/>
+      <c r="V4" s="251"/>
       <c r="X4" s="228"/>
       <c r="Y4" s="233"/>
-      <c r="Z4" s="246" t="s">
+      <c r="Z4" s="257" t="s">
         <v>297</v>
       </c>
-      <c r="AA4" s="246"/>
-      <c r="AB4" s="246"/>
-      <c r="AC4" s="246"/>
-      <c r="AD4" s="246"/>
+      <c r="AA4" s="257"/>
+      <c r="AB4" s="257"/>
+      <c r="AC4" s="257"/>
+      <c r="AD4" s="257"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="165"/>
@@ -3601,45 +3640,49 @@
       </c>
       <c r="H5" s="102">
         <f t="shared" si="1"/>
-        <v>5.0000000000000044E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="I5" s="102">
         <f t="shared" si="1"/>
-        <v>0.18651521913982694</v>
+        <v>0.19522733971397943</v>
       </c>
       <c r="J5" s="102">
         <f t="shared" si="1"/>
-        <v>8.8351866299362092E-2</v>
+        <v>9.7713143271510594E-2</v>
       </c>
       <c r="K5" s="102">
         <f t="shared" si="1"/>
-        <v>5.0000000000000044E-2</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="L5" s="102">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M5" s="102"/>
-      <c r="U5" s="260"/>
-      <c r="V5" s="261"/>
+      <c r="U5" s="252"/>
+      <c r="V5" s="253"/>
       <c r="X5" s="228"/>
       <c r="Y5" s="234">
         <f ca="1">C261</f>
-        <v>-4.6840717940537013E-2</v>
+        <v>-0.10030575436935951</v>
       </c>
       <c r="Z5" s="230">
+        <f>AA5-0.005</f>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="AA5" s="230">
+        <f>AB5-0.005</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AB5" s="230">
         <v>0.02</v>
       </c>
-      <c r="AA5" s="230">
+      <c r="AC5" s="230">
+        <f>AB5+0.005</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AB5" s="230">
-        <v>0.03</v>
-      </c>
-      <c r="AC5" s="230">
-        <v>3.5000000000000003E-2</v>
-      </c>
       <c r="AD5" s="230">
-        <v>0.04</v>
+        <f>AC5+0.005</f>
+        <v>3.0000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,25 +3708,25 @@
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:L6" si="2">H4-H14</f>
-        <v>2046560.557121953</v>
+        <v>2019223.0721543273</v>
       </c>
       <c r="I6" s="12">
         <f t="shared" si="2"/>
-        <v>2391582.85071861</v>
+        <v>2320146.0395400003</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="2"/>
-        <v>2562949.4200198487</v>
+        <v>2546854.8019123999</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" si="2"/>
-        <v>2649165.9401030773</v>
+        <v>2699666.0900271442</v>
       </c>
       <c r="L6" s="12">
         <f t="shared" si="2"/>
-        <v>2685452.0388608724</v>
-      </c>
-      <c r="X6" s="248" t="s">
+        <v>2753659.4118276872</v>
+      </c>
+      <c r="X6" s="256" t="s">
         <v>194</v>
       </c>
       <c r="Y6" s="235">
@@ -3692,19 +3735,19 @@
       </c>
       <c r="Z6" s="229">
         <f t="dataTable" ref="Z6:AD10" dt2D="1" dtr="1" r1="L5" r2="G247" ca="1"/>
-        <v>-0.15004046745780308</v>
+        <v>-0.18335036699589269</v>
       </c>
       <c r="AA6" s="229">
-        <v>-9.094652074801246E-2</v>
+        <v>-0.13382080192484769</v>
       </c>
       <c r="AB6" s="229">
-        <v>-3.0162870794022689E-2</v>
+        <v>-8.2672391368343146E-2</v>
       </c>
       <c r="AC6" s="229">
-        <v>3.2384005358878198E-2</v>
+        <v>-2.9824450195530261E-2</v>
       </c>
       <c r="AD6" s="229">
-        <v>9.6771958985666706E-2</v>
+        <v>2.4809159231139577E-2</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3724,30 +3767,30 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="U7" s="263" t="str">
+      <c r="U7" s="255" t="str">
         <f>INDEX(growth!B24:B25,MATCH('proforma + dcf'!$U$4,growth!C24:C25,0))</f>
         <v>Conservative Case</v>
       </c>
-      <c r="V7" s="263"/>
-      <c r="X7" s="248"/>
+      <c r="V7" s="255"/>
+      <c r="X7" s="256"/>
       <c r="Y7" s="235">
         <f>Y8-0.005</f>
         <v>7.7592342911745368E-2</v>
       </c>
       <c r="Z7" s="229">
-        <v>-0.15943238333648102</v>
+        <v>-0.19275030398466764</v>
       </c>
       <c r="AA7" s="231">
-        <v>-9.9801828018499794E-2</v>
+        <v>-0.14279070376043346</v>
       </c>
       <c r="AB7" s="231">
-        <v>-3.8472335944645941E-2</v>
+        <v>-9.1201560832194994E-2</v>
       </c>
       <c r="AC7" s="231">
-        <v>2.4629748875060309E-2</v>
+        <v>-3.7901826710667441E-2</v>
       </c>
       <c r="AD7" s="229">
-        <v>8.958240258846073E-2</v>
+        <v>1.7195012511070584E-2</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3767,24 +3810,24 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="X8" s="248"/>
+      <c r="X8" s="256"/>
       <c r="Y8" s="235">
         <v>8.2592342911745373E-2</v>
       </c>
       <c r="Z8" s="229">
-        <v>-0.16889249433133213</v>
+        <v>-0.20221361111168967</v>
       </c>
       <c r="AA8" s="231">
-        <v>-0.10872068795253353</v>
+        <v>-0.1518206437426457</v>
       </c>
       <c r="AB8" s="232">
-        <v>-4.6840717940537013E-2</v>
+        <v>-9.978739466324571E-2</v>
       </c>
       <c r="AC8" s="231">
-        <v>1.6821200303256068E-2</v>
+        <v>-4.603245261619815E-2</v>
       </c>
       <c r="AD8" s="229">
-        <v>8.2343162985895058E-2</v>
+        <v>9.5310718112804338E-3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -3804,25 +3847,25 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="X9" s="248"/>
+      <c r="X9" s="256"/>
       <c r="Y9" s="235">
         <f>Y8+0.005</f>
         <v>8.7592342911745377E-2</v>
       </c>
       <c r="Z9" s="229">
-        <v>-0.17842131264185923</v>
+        <v>-0.21174070759563146</v>
       </c>
       <c r="AA9" s="231">
-        <v>-0.11770356729343256</v>
+        <v>-0.16091101295065147</v>
       </c>
       <c r="AB9" s="231">
-        <v>-5.5268439344419829E-2</v>
+        <v>-0.10843025600525258</v>
       </c>
       <c r="AC9" s="231">
-        <v>8.9579798989526394E-3</v>
+        <v>-5.4216663367100404E-2</v>
       </c>
       <c r="AD9" s="229">
-        <v>7.505390179907856E-2</v>
+        <v>1.8170290726885474E-3</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -3842,25 +3885,25 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="X10" s="248"/>
+      <c r="X10" s="256"/>
       <c r="Y10" s="235">
         <f>Y9+0.005</f>
         <v>9.2592342911745382E-2</v>
       </c>
       <c r="Z10" s="229">
-        <v>-0.18801935523903834</v>
+        <v>-0.22133201598796703</v>
       </c>
       <c r="AA10" s="229">
-        <v>-0.12675093700574269</v>
+        <v>-0.17006220550192608</v>
       </c>
       <c r="AB10" s="229">
-        <v>-6.375592642070993E-2</v>
+        <v>-0.1171305107544669</v>
       </c>
       <c r="AC10" s="229">
-        <v>1.0397047039227836E-3</v>
+        <v>-6.2454796894380937E-2</v>
       </c>
       <c r="AD10" s="229">
-        <v>6.7714277891036012E-2</v>
+        <v>-5.9474259733969248E-3</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -3900,13 +3943,13 @@
       <c r="L12" s="12"/>
       <c r="X12" s="228"/>
       <c r="Y12" s="233"/>
-      <c r="Z12" s="246" t="s">
+      <c r="Z12" s="257" t="s">
         <v>297</v>
       </c>
-      <c r="AA12" s="246"/>
-      <c r="AB12" s="246"/>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="246"/>
+      <c r="AA12" s="257"/>
+      <c r="AB12" s="257"/>
+      <c r="AC12" s="257"/>
+      <c r="AD12" s="257"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="166"/>
@@ -3935,23 +3978,23 @@
       </c>
       <c r="H13" s="104">
         <f t="shared" si="4"/>
-        <v>2046560.557121953</v>
+        <v>2019223.0721543273</v>
       </c>
       <c r="I13" s="104">
         <f t="shared" si="4"/>
-        <v>2391582.85071861</v>
+        <v>2320146.0395400003</v>
       </c>
       <c r="J13" s="104">
         <f t="shared" si="4"/>
-        <v>2562949.4200198487</v>
+        <v>2546854.8019123999</v>
       </c>
       <c r="K13" s="104">
         <f t="shared" si="4"/>
-        <v>2649165.9401030773</v>
+        <v>2699666.0900271442</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="4"/>
-        <v>2685452.0388608724</v>
+        <v>2753659.4118276872</v>
       </c>
       <c r="X13" s="228"/>
       <c r="Y13" s="234">
@@ -3960,23 +4003,23 @@
       </c>
       <c r="Z13" s="230">
         <f>Z5</f>
-        <v>0.02</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="AA13" s="230">
         <f>AA5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AB13" s="230">
         <f>AB5</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AC13" s="230">
         <f>AC5</f>
-        <v>3.5000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD13" s="230">
         <f>AD5</f>
-        <v>0.04</v>
+        <v>3.0000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -4006,29 +4049,29 @@
       </c>
       <c r="H14" s="109">
         <f t="shared" ref="H14:L14" si="6">H16*H4</f>
-        <v>700385.91787804721</v>
+        <v>753884.7978456727</v>
       </c>
       <c r="I14" s="109">
         <f t="shared" si="6"/>
-        <v>867710.94803138997</v>
+        <v>994348.30266000004</v>
       </c>
       <c r="J14" s="109">
         <f t="shared" si="6"/>
-        <v>984309.0686676515</v>
+        <v>1091509.2008196001</v>
       </c>
       <c r="K14" s="109">
         <f t="shared" si="6"/>
-        <v>1075455.4730187983</v>
+        <v>1156999.752868776</v>
       </c>
       <c r="L14" s="109">
         <f t="shared" si="6"/>
-        <v>1150908.0166546595</v>
+        <v>1180139.7479261516</v>
       </c>
       <c r="M14" s="196">
         <f>POWER(L14/G14,1/(COUNT(G14:L14)+1))-1</f>
-        <v>8.8036540102404581E-2</v>
-      </c>
-      <c r="X14" s="248" t="s">
+        <v>9.1942069032009188E-2</v>
+      </c>
+      <c r="X14" s="256" t="s">
         <v>194</v>
       </c>
       <c r="Y14" s="235">
@@ -4037,23 +4080,23 @@
       </c>
       <c r="Z14" s="236">
         <f>(1+Z6)*'proforma + dcf'!$C$260</f>
-        <v>27.92117064401117</v>
+        <v>28.737900585414536</v>
       </c>
       <c r="AA14" s="236">
         <f>(1+AA6)*'proforma + dcf'!$C$260</f>
-        <v>29.862406793427791</v>
+        <v>30.480845980264608</v>
       </c>
       <c r="AB14" s="236">
         <f>(1+AB6)*'proforma + dcf'!$C$260</f>
-        <v>31.859149694416356</v>
+        <v>32.280758547748</v>
       </c>
       <c r="AC14" s="236">
         <f>(1+AC6)*'proforma + dcf'!$C$260</f>
-        <v>33.913814576039151</v>
+        <v>34.140477597619288</v>
       </c>
       <c r="AD14" s="236">
         <f>(1+AD6)*'proforma + dcf'!$C$260</f>
-        <v>36.028958852679153</v>
+        <v>36.063034313343806</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -4074,30 +4117,30 @@
       <c r="J15" s="110"/>
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
-      <c r="X15" s="248"/>
+      <c r="X15" s="256"/>
       <c r="Y15" s="235">
         <f>Y16-0.005</f>
         <v>7.7592342911745368E-2</v>
       </c>
       <c r="Z15" s="236">
         <f>(1+Z7)*'proforma + dcf'!$C$260</f>
-        <v>27.612646207396601</v>
+        <v>28.407116802779544</v>
       </c>
       <c r="AA15" s="237">
         <f>(1+AA7)*'proforma + dcf'!$C$260</f>
-        <v>29.571509949592283</v>
+        <v>30.165195134670345</v>
       </c>
       <c r="AB15" s="237">
         <f>(1+AB7)*'proforma + dcf'!$C$260</f>
-        <v>31.586183764218383</v>
+        <v>31.980617074315056</v>
       </c>
       <c r="AC15" s="237">
         <f>(1+AC7)*'proforma + dcf'!$C$260</f>
-        <v>33.659087250545731</v>
+        <v>33.85623471805161</v>
       </c>
       <c r="AD15" s="236">
         <f>(1+AD7)*'proforma + dcf'!$C$260</f>
-        <v>35.792781925030937</v>
+        <v>35.795092490264565</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -4122,51 +4165,53 @@
         <v>0.24371112353856808</v>
       </c>
       <c r="G16" s="75">
-        <f>F16</f>
+        <f>CHOOSE($U$4,growth!E36,growth!E37)</f>
         <v>0.24371112353856808</v>
       </c>
       <c r="H16" s="75">
-        <f>($L$16-$G$16)/COUNT($H$4:$L$4)+G16</f>
-        <v>0.25496889883085444</v>
+        <f>CHOOSE($U$4,growth!F36,growth!F37)</f>
+        <v>0.27185556176928405</v>
       </c>
       <c r="I16" s="75">
-        <f t="shared" ref="I16:K16" si="8">($L$16-$G$16)/COUNT($H$4:$L$4)+H16</f>
-        <v>0.26622667412314083</v>
+        <f>CHOOSE($U$4,growth!G36,growth!G37)</f>
+        <v>0.3</v>
       </c>
       <c r="J16" s="75">
-        <f t="shared" si="8"/>
-        <v>0.27748444941542721</v>
+        <f>CHOOSE($U$4,growth!H36,growth!H37)</f>
+        <v>0.3</v>
       </c>
       <c r="K16" s="75">
-        <f t="shared" si="8"/>
-        <v>0.2887422247077136</v>
+        <f>CHOOSE($U$4,growth!I36,growth!I37)</f>
+        <v>0.3</v>
       </c>
       <c r="L16" s="75">
+        <f>CHOOSE($U$4,growth!J36,growth!J37)</f>
         <v>0.3</v>
       </c>
-      <c r="X16" s="248"/>
+      <c r="M16" s="196"/>
+      <c r="X16" s="256"/>
       <c r="Y16" s="235">
         <v>8.2592342911745373E-2</v>
       </c>
       <c r="Z16" s="236">
         <f>(1+Z8)*'proforma + dcf'!$C$260</f>
-        <v>27.30188156121574</v>
+        <v>28.074103024979639</v>
       </c>
       <c r="AA16" s="237">
         <f>(1+AA8)*'proforma + dcf'!$C$260</f>
-        <v>29.278525400759275</v>
+        <v>29.847431546696296</v>
       </c>
       <c r="AB16" s="238">
         <f>(1+AB8)*'proforma + dcf'!$C$260</f>
-        <v>31.311282415653359</v>
+        <v>31.67848158180038</v>
       </c>
       <c r="AC16" s="237">
         <f>(1+AC8)*'proforma + dcf'!$C$260</f>
-        <v>33.402576429961961</v>
+        <v>33.570117992435982</v>
       </c>
       <c r="AD16" s="236">
         <f>(1+AD8)*'proforma + dcf'!$C$260</f>
-        <v>35.554972904086654</v>
+        <v>35.525398417038957</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -4187,53 +4232,53 @@
         <v>272306</v>
       </c>
       <c r="G17" s="15">
-        <f t="shared" ref="G17:L17" si="9">G18*G4</f>
-        <v>351957.33640973794</v>
+        <f t="shared" ref="G17:L17" si="8">G18*G4</f>
+        <v>344353.21712779038</v>
       </c>
       <c r="H17" s="15">
-        <f t="shared" si="9"/>
-        <v>361570.87798417982</v>
+        <f t="shared" si="8"/>
+        <v>348893.67727772897</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" si="9"/>
-        <v>419535.82610698399</v>
+        <f t="shared" si="8"/>
+        <v>397739.32106400002</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" si="9"/>
-        <v>446292.07242948707</v>
+        <f t="shared" si="8"/>
+        <v>436603.68032784003</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" si="9"/>
-        <v>457780.62281279318</v>
+        <f t="shared" si="8"/>
+        <v>462799.90114751045</v>
       </c>
       <c r="L17" s="15">
-        <f t="shared" si="9"/>
-        <v>460363.20666186383</v>
-      </c>
-      <c r="X17" s="248"/>
+        <f t="shared" si="8"/>
+        <v>472055.89917046065</v>
+      </c>
+      <c r="X17" s="256"/>
       <c r="Y17" s="235">
         <f>Y16+0.005</f>
         <v>8.7592342911745377E-2</v>
       </c>
       <c r="Z17" s="236">
         <f>(1+Z9)*'proforma + dcf'!$C$260</f>
-        <v>26.988859879714926</v>
+        <v>27.738844499709728</v>
       </c>
       <c r="AA17" s="237">
         <f>(1+AA9)*'proforma + dcf'!$C$260</f>
-        <v>28.983437814410742</v>
+        <v>29.527541454266572</v>
       </c>
       <c r="AB17" s="237">
         <f>(1+AB9)*'proforma + dcf'!$C$260</f>
-        <v>31.034431767535811</v>
+        <v>31.374339291175161</v>
       </c>
       <c r="AC17" s="237">
         <f>(1+AC9)*'proforma + dcf'!$C$260</f>
-        <v>33.144269639680601</v>
+        <v>33.282115616111732</v>
       </c>
       <c r="AD17" s="236">
         <f>(1+AD9)*'proforma + dcf'!$C$260</f>
-        <v>35.31552067409973</v>
+        <v>35.253941253067914</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -4259,52 +4304,52 @@
       </c>
       <c r="G18" s="65">
         <f>CHOOSE($U$4,growth!E33,growth!E34)</f>
-        <v>0.1345330921419664</v>
+        <v>0.13162647371357314</v>
       </c>
       <c r="H18" s="65">
         <f>CHOOSE($U$4,growth!F33,growth!F34)</f>
-        <v>0.13162647371357311</v>
+        <v>0.12581323685678658</v>
       </c>
       <c r="I18" s="65">
         <f>CHOOSE($U$4,growth!G33,growth!G34)</f>
-        <v>0.12871985528517982</v>
+        <v>0.12</v>
       </c>
       <c r="J18" s="65">
         <f>CHOOSE($U$4,growth!H33,growth!H34)</f>
-        <v>0.12581323685678653</v>
+        <v>0.12</v>
       </c>
       <c r="K18" s="65">
         <f>CHOOSE($U$4,growth!I33,growth!I34)</f>
-        <v>0.12290661842839325</v>
+        <v>0.12</v>
       </c>
       <c r="L18" s="65">
         <f>CHOOSE($U$4,growth!J33,growth!J34)</f>
         <v>0.12</v>
       </c>
-      <c r="X18" s="248"/>
+      <c r="X18" s="256"/>
       <c r="Y18" s="235">
         <f>Y17+0.005</f>
         <v>9.2592342911745382E-2</v>
       </c>
       <c r="Z18" s="236">
         <f>(1+Z10)*'proforma + dcf'!$C$260</f>
-        <v>26.673564180397591</v>
+        <v>27.401326357383439</v>
       </c>
       <c r="AA18" s="236">
         <f>(1+AA10)*'proforma + dcf'!$C$260</f>
-        <v>28.686231719361352</v>
+        <v>29.205510988387218</v>
       </c>
       <c r="AB18" s="236">
         <f>(1+AB10)*'proforma + dcf'!$C$260</f>
-        <v>30.755617817079681</v>
+        <v>31.068177326550309</v>
       </c>
       <c r="AC18" s="236">
         <f>(1+AC10)*'proforma + dcf'!$C$260</f>
-        <v>32.884154299523864</v>
+        <v>32.992215697286731</v>
       </c>
       <c r="AD18" s="236">
         <f>(1+AD10)*'proforma + dcf'!$C$260</f>
-        <v>35.074414028720533</v>
+        <v>34.980710079996157</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -4346,17 +4391,17 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="X20" s="249" t="s">
+      <c r="X20" s="259" t="s">
         <v>310</v>
       </c>
-      <c r="Y20" s="250"/>
-      <c r="Z20" s="253" t="s">
+      <c r="Y20" s="260"/>
+      <c r="Z20" s="263" t="s">
         <v>309</v>
       </c>
-      <c r="AA20" s="253"/>
-      <c r="AB20" s="253"/>
-      <c r="AC20" s="253"/>
-      <c r="AD20" s="254"/>
+      <c r="AA20" s="263"/>
+      <c r="AB20" s="263"/>
+      <c r="AC20" s="263"/>
+      <c r="AD20" s="264"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="165"/>
@@ -4377,13 +4422,13 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="X21" s="251"/>
-      <c r="Y21" s="252"/>
-      <c r="Z21" s="255"/>
-      <c r="AA21" s="255"/>
-      <c r="AB21" s="255"/>
-      <c r="AC21" s="255"/>
-      <c r="AD21" s="256"/>
+      <c r="X21" s="261"/>
+      <c r="Y21" s="262"/>
+      <c r="Z21" s="265"/>
+      <c r="AA21" s="265"/>
+      <c r="AB21" s="265"/>
+      <c r="AC21" s="265"/>
+      <c r="AD21" s="266"/>
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="165"/>
@@ -4400,35 +4445,35 @@
       </c>
       <c r="G22" s="97">
         <f>-G71</f>
-        <v>25737.983267411983</v>
+        <v>21686.700529415961</v>
       </c>
       <c r="H22" s="97">
-        <f t="shared" ref="H22:L22" si="10">-H71</f>
-        <v>27024.882430782582</v>
+        <f t="shared" ref="H22:L22" si="9">-H71</f>
+        <v>22987.902561180919</v>
       </c>
       <c r="I22" s="97">
-        <f t="shared" si="10"/>
-        <v>32065.434299588051</v>
+        <f t="shared" si="9"/>
+        <v>27475.769623804448</v>
       </c>
       <c r="J22" s="97">
-        <f t="shared" si="10"/>
-        <v>34898.475263656241</v>
+        <f t="shared" si="9"/>
+        <v>30160.513437550275</v>
       </c>
       <c r="K22" s="97">
-        <f t="shared" si="10"/>
-        <v>36643.399026839048</v>
+        <f t="shared" si="9"/>
+        <v>31970.144243803286</v>
       </c>
       <c r="L22" s="97">
-        <f t="shared" si="10"/>
-        <v>37742.700997644228</v>
-      </c>
-      <c r="X22" s="244"/>
-      <c r="Y22" s="244"/>
-      <c r="Z22" s="244"/>
-      <c r="AA22" s="245"/>
-      <c r="AB22" s="245"/>
-      <c r="AC22" s="245"/>
-      <c r="AD22" s="245"/>
+        <f t="shared" si="9"/>
+        <v>32609.547128679355</v>
+      </c>
+      <c r="X22" s="246"/>
+      <c r="Y22" s="246"/>
+      <c r="Z22" s="246"/>
+      <c r="AA22" s="247"/>
+      <c r="AB22" s="247"/>
+      <c r="AC22" s="247"/>
+      <c r="AD22" s="247"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="165"/>
@@ -4448,27 +4493,27 @@
         <v>48154</v>
       </c>
       <c r="G23" s="133">
-        <f t="shared" ref="G23:L23" si="11">G24+G25+G26+G27</f>
+        <f t="shared" ref="G23:L23" si="10">G24+G25+G26+G27</f>
         <v>12110.5</v>
       </c>
       <c r="H23" s="133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I23" s="133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J23" s="133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K23" s="133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L23" s="133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4561,11 +4606,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="133">
-        <f t="shared" ref="J26" si="12">I26</f>
+        <f t="shared" ref="J26" si="11">I26</f>
         <v>0</v>
       </c>
       <c r="K26" s="133">
-        <f t="shared" ref="K26" si="13">J26</f>
+        <f t="shared" ref="K26" si="12">J26</f>
         <v>0</v>
       </c>
       <c r="L26" s="133">
@@ -4590,19 +4635,19 @@
         <v>0</v>
       </c>
       <c r="H27" s="133">
-        <f t="shared" ref="H27:J27" si="14">G27</f>
+        <f t="shared" ref="H27:J27" si="13">G27</f>
         <v>0</v>
       </c>
       <c r="I27" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J27" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K27" s="133">
-        <f t="shared" ref="K27" si="15">J27</f>
+        <f t="shared" ref="K27" si="14">J27</f>
         <v>0</v>
       </c>
       <c r="L27" s="133">
@@ -4625,23 +4670,23 @@
         <v>0</v>
       </c>
       <c r="H28" s="97">
-        <f t="shared" ref="H28:L28" si="16">H168</f>
+        <f t="shared" ref="H28:L28" si="15">H168</f>
         <v>0</v>
       </c>
       <c r="I28" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J28" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K28" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L28" s="97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4651,48 +4696,48 @@
         <v>7</v>
       </c>
       <c r="C29" s="106">
-        <f t="shared" ref="C29:L29" si="17">C14-C17-C22-C23-C28</f>
+        <f t="shared" ref="C29:L29" si="16">C14-C17-C22-C23-C28</f>
         <v>401002</v>
       </c>
       <c r="D29" s="106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>403179</v>
       </c>
       <c r="E29" s="106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>288993</v>
       </c>
       <c r="F29" s="106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-180843</v>
       </c>
       <c r="G29" s="106">
-        <f t="shared" si="17"/>
-        <v>247776.4772014778</v>
+        <f t="shared" si="16"/>
+        <v>259431.87922142138</v>
       </c>
       <c r="H29" s="106">
-        <f t="shared" si="17"/>
-        <v>311790.15746308479</v>
+        <f t="shared" si="16"/>
+        <v>382003.21800676279</v>
       </c>
       <c r="I29" s="106">
-        <f t="shared" si="17"/>
-        <v>416109.68762481795</v>
+        <f t="shared" si="16"/>
+        <v>569133.21197219554</v>
       </c>
       <c r="J29" s="106">
-        <f t="shared" si="17"/>
-        <v>503118.52097450814</v>
+        <f t="shared" si="16"/>
+        <v>624745.00705420983</v>
       </c>
       <c r="K29" s="106">
-        <f t="shared" si="17"/>
-        <v>581031.45117916609</v>
+        <f t="shared" si="16"/>
+        <v>662229.70747746225</v>
       </c>
       <c r="L29" s="106">
-        <f t="shared" si="17"/>
-        <v>652802.10899515147</v>
+        <f t="shared" si="16"/>
+        <v>675474.30162701162</v>
       </c>
       <c r="M29" s="196">
         <f>POWER(L29/G29,1/(COUNT(G29:L29)+1))-1</f>
-        <v>0.14842613646082081</v>
+        <v>0.14648758341573376</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -4717,23 +4762,23 @@
         <v>29262.878578379539</v>
       </c>
       <c r="H30" s="27">
-        <f t="shared" ref="H30:L30" ca="1" si="18">H31+H33+H34+H35</f>
+        <f t="shared" ref="H30:L30" ca="1" si="17">H31+H33+H34+H35</f>
         <v>18535.051588969331</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v>18219.868202660931</v>
       </c>
       <c r="J30" s="27">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v>13866.86326702696</v>
       </c>
       <c r="K30" s="27">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v>5769.696423795589</v>
       </c>
       <c r="L30" s="27">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="17"/>
         <v>5484.0505255401622</v>
       </c>
     </row>
@@ -4783,35 +4828,35 @@
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45">
-        <f t="shared" ref="E32:L32" si="19">E31/E113</f>
+        <f t="shared" ref="E32:L32" si="18">E31/E113</f>
         <v>3.3915976331360946E-2</v>
       </c>
       <c r="F32" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3.0204999999999999E-2</v>
       </c>
       <c r="G32" s="45">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v>2.6599999999999999E-2</v>
       </c>
       <c r="H32" s="45">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v>2.7E-2</v>
       </c>
       <c r="I32" s="45">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v>2.7E-2</v>
       </c>
       <c r="J32" s="45">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v>2.7E-2</v>
       </c>
       <c r="K32" s="45">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v>9.6666666666666672E-3</v>
       </c>
       <c r="L32" s="45">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="18"/>
         <v>9.6666666666666672E-3</v>
       </c>
       <c r="N32" s="130"/>
@@ -4892,23 +4937,23 @@
         <v>274.52085264133456</v>
       </c>
       <c r="H35" s="27">
-        <f t="shared" ref="H35:L35" si="20">H134</f>
+        <f t="shared" ref="H35:L35" si="19">H134</f>
         <v>280.67785415562588</v>
       </c>
       <c r="I35" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>286.97294597264727</v>
       </c>
       <c r="J35" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>293.40922520576879</v>
       </c>
       <c r="K35" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>299.98985843095841</v>
       </c>
       <c r="L35" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>306.71808324470186</v>
       </c>
     </row>
@@ -4938,11 +4983,11 @@
         <v>9</v>
       </c>
       <c r="C37" s="106">
-        <f t="shared" ref="C37:D37" si="21">C29-C30</f>
+        <f t="shared" ref="C37:D37" si="20">C29-C30</f>
         <v>376816</v>
       </c>
       <c r="D37" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>372134</v>
       </c>
       <c r="E37" s="106">
@@ -4955,31 +5000,31 @@
       </c>
       <c r="G37" s="106">
         <f ca="1">G29-G30</f>
-        <v>218513.59862309825</v>
+        <v>230169.00064304183</v>
       </c>
       <c r="H37" s="106">
-        <f t="shared" ref="H37:L37" ca="1" si="22">H29-H30</f>
-        <v>293255.10587411548</v>
+        <f t="shared" ref="H37:L37" ca="1" si="21">H29-H30</f>
+        <v>363468.16641779349</v>
       </c>
       <c r="I37" s="106">
-        <f t="shared" ca="1" si="22"/>
-        <v>397889.81942215702</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>550913.34376953461</v>
       </c>
       <c r="J37" s="106">
-        <f t="shared" ca="1" si="22"/>
-        <v>489251.65770748118</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>610878.14378718287</v>
       </c>
       <c r="K37" s="106">
-        <f t="shared" ca="1" si="22"/>
-        <v>575261.75475537055</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>656460.01105366671</v>
       </c>
       <c r="L37" s="106">
-        <f t="shared" ca="1" si="22"/>
-        <v>647318.05846961134</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>669990.25110147148</v>
       </c>
       <c r="M37" s="196">
         <f ca="1">POWER(L37/G37,1/(COUNT(G37:L37)+1))-1</f>
-        <v>0.1678230319751719</v>
+        <v>0.16490043470982063</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -5001,27 +5046,27 @@
       </c>
       <c r="G38" s="69">
         <f ca="1">G47*G37</f>
-        <v>12898.805467180737</v>
+        <v>13586.821060921206</v>
       </c>
       <c r="H38" s="69">
-        <f t="shared" ref="H38:L38" ca="1" si="23">H47*H37</f>
-        <v>17310.778765088067</v>
+        <f t="shared" ref="H38:L38" ca="1" si="22">H47*H37</f>
+        <v>21455.438936880924</v>
       </c>
       <c r="I38" s="69">
-        <f t="shared" ca="1" si="23"/>
-        <v>23487.340881472988</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>32520.282926712698</v>
       </c>
       <c r="J38" s="69">
-        <f t="shared" ca="1" si="23"/>
-        <v>28880.408345430129</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>36059.990730619968</v>
       </c>
       <c r="K38" s="69">
-        <f t="shared" ca="1" si="23"/>
-        <v>33957.563804059733</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>38750.677454036901</v>
       </c>
       <c r="L38" s="69">
-        <f t="shared" ca="1" si="23"/>
-        <v>171539.72292299816</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>177547.86929129343</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -5194,11 +5239,11 @@
         <v>164</v>
       </c>
       <c r="C47" s="120">
-        <f t="shared" ref="C47:D47" si="24">C38/C37</f>
+        <f t="shared" ref="C47:D47" si="23">C38/C37</f>
         <v>3.8432550634792575E-2</v>
       </c>
       <c r="D47" s="120">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>5.7398678970478373E-2</v>
       </c>
       <c r="E47" s="120">
@@ -5218,15 +5263,15 @@
         <v>5.9029760840784817E-2</v>
       </c>
       <c r="I47" s="75">
-        <f t="shared" ref="I47:K47" si="25">H47</f>
+        <f t="shared" ref="I47:K47" si="24">H47</f>
         <v>5.9029760840784817E-2</v>
       </c>
       <c r="J47" s="75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5.9029760840784817E-2</v>
       </c>
       <c r="K47" s="75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5.9029760840784817E-2</v>
       </c>
       <c r="L47" s="75">
@@ -5241,11 +5286,11 @@
         <v>10</v>
       </c>
       <c r="C48" s="106">
-        <f t="shared" ref="C48:D48" si="26">C37-C38</f>
+        <f t="shared" ref="C48:D48" si="25">C37-C38</f>
         <v>362334</v>
       </c>
       <c r="D48" s="106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>350774</v>
       </c>
       <c r="E48" s="106">
@@ -5258,31 +5303,31 @@
       </c>
       <c r="G48" s="106">
         <f ca="1">G37-G38</f>
-        <v>205614.79315591752</v>
+        <v>216582.17958212062</v>
       </c>
       <c r="H48" s="106">
-        <f t="shared" ref="H48:L48" ca="1" si="27">H37-H38</f>
-        <v>275944.32710902742</v>
+        <f t="shared" ref="H48:L48" ca="1" si="26">H37-H38</f>
+        <v>342012.72748091258</v>
       </c>
       <c r="I48" s="106">
-        <f t="shared" ca="1" si="27"/>
-        <v>374402.47854068404</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>518393.0608428219</v>
       </c>
       <c r="J48" s="106">
-        <f t="shared" ca="1" si="27"/>
-        <v>460371.24936205102</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>574818.15305656288</v>
       </c>
       <c r="K48" s="106">
-        <f t="shared" ca="1" si="27"/>
-        <v>541304.1909513108</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>617709.33359962981</v>
       </c>
       <c r="L48" s="106">
-        <f t="shared" ca="1" si="27"/>
-        <v>475778.33554661321</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>492442.38181017805</v>
       </c>
       <c r="M48" s="196">
         <f ca="1">POWER(L48/G48,1/(COUNT(G48:L48)+1))-1</f>
-        <v>0.12732735032471387</v>
+        <v>0.12450609766827148</v>
       </c>
       <c r="O48" s="96"/>
     </row>
@@ -5306,47 +5351,47 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="168"/>
       <c r="B50" s="194" t="str">
-        <f t="shared" ref="B50:L50" si="28">B3</f>
+        <f t="shared" ref="B50:L50" si="27">B3</f>
         <v>(in thousands of USD, except per share data)</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2017</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2018</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2019</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2020</v>
       </c>
       <c r="G50" s="7" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2021E</v>
       </c>
       <c r="H50" s="7" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2022E</v>
       </c>
       <c r="I50" s="7" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2023E</v>
       </c>
       <c r="J50" s="7" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2024E</v>
       </c>
       <c r="K50" s="7" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2025E</v>
       </c>
       <c r="L50" s="7" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Terminal</v>
       </c>
     </row>
@@ -5474,36 +5519,36 @@
       <c r="C57" s="107"/>
       <c r="D57" s="107"/>
       <c r="E57" s="107">
-        <f t="shared" ref="E57:L57" si="29">E29</f>
+        <f t="shared" ref="E57:L57" si="28">E29</f>
         <v>288993</v>
       </c>
       <c r="F57" s="107">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-180843</v>
       </c>
       <c r="G57" s="107">
-        <f t="shared" si="29"/>
-        <v>247776.4772014778</v>
+        <f t="shared" si="28"/>
+        <v>259431.87922142138</v>
       </c>
       <c r="H57" s="107">
-        <f t="shared" si="29"/>
-        <v>311790.15746308479</v>
+        <f t="shared" si="28"/>
+        <v>382003.21800676279</v>
       </c>
       <c r="I57" s="107">
-        <f t="shared" si="29"/>
-        <v>416109.68762481795</v>
+        <f t="shared" si="28"/>
+        <v>569133.21197219554</v>
       </c>
       <c r="J57" s="107">
-        <f t="shared" si="29"/>
-        <v>503118.52097450814</v>
+        <f t="shared" si="28"/>
+        <v>624745.00705420983</v>
       </c>
       <c r="K57" s="107">
-        <f t="shared" si="29"/>
-        <v>581031.45117916609</v>
+        <f t="shared" si="28"/>
+        <v>662229.70747746225</v>
       </c>
       <c r="L57" s="107">
-        <f t="shared" si="29"/>
-        <v>652802.10899515147</v>
+        <f t="shared" si="28"/>
+        <v>675474.30162701162</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -5514,36 +5559,36 @@
       <c r="C58" s="107"/>
       <c r="D58" s="107"/>
       <c r="E58" s="107">
-        <f t="shared" ref="E58:L58" si="30">E57+E148+E155+E157+E158</f>
+        <f t="shared" ref="E58:L58" si="29">E57+E148+E155+E157+E158</f>
         <v>445787</v>
       </c>
       <c r="F58" s="107">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>-33653</v>
       </c>
       <c r="G58" s="107">
-        <f t="shared" si="30"/>
-        <v>437052.60014093702</v>
+        <f t="shared" si="29"/>
+        <v>448708.0021608806</v>
       </c>
       <c r="H58" s="107">
-        <f t="shared" si="30"/>
-        <v>510495.086549517</v>
+        <f t="shared" si="29"/>
+        <v>582593.90832258959</v>
       </c>
       <c r="I58" s="107">
-        <f t="shared" si="30"/>
-        <v>651745.54945057188</v>
+        <f t="shared" si="29"/>
+        <v>808748.02999197203</v>
       </c>
       <c r="J58" s="107">
-        <f t="shared" si="30"/>
-        <v>759511.40465321648</v>
+        <f t="shared" si="29"/>
+        <v>887704.94291683962</v>
       </c>
       <c r="K58" s="107">
-        <f t="shared" si="30"/>
-        <v>850208.97904180991</v>
+        <f t="shared" si="29"/>
+        <v>940925.23949184979</v>
       </c>
       <c r="L58" s="107">
-        <f t="shared" si="30"/>
-        <v>930033.96269367472</v>
+        <f t="shared" si="29"/>
+        <v>959729.74428168708</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -5552,44 +5597,44 @@
         <v>173</v>
       </c>
       <c r="C59" s="107">
-        <f t="shared" ref="C59:D59" si="31">C58+C23+C28</f>
+        <f t="shared" ref="C59:D59" si="30">C58+C23+C28</f>
         <v>22894</v>
       </c>
       <c r="D59" s="107">
+        <f t="shared" si="30"/>
+        <v>34228</v>
+      </c>
+      <c r="E59" s="107">
+        <f t="shared" ref="E59:L59" si="31">E58+E23+E28</f>
+        <v>493116</v>
+      </c>
+      <c r="F59" s="107">
         <f t="shared" si="31"/>
-        <v>34228</v>
-      </c>
-      <c r="E59" s="107">
-        <f t="shared" ref="E59:L59" si="32">E58+E23+E28</f>
-        <v>493116</v>
-      </c>
-      <c r="F59" s="107">
-        <f t="shared" si="32"/>
         <v>108490</v>
       </c>
       <c r="G59" s="107">
-        <f t="shared" si="32"/>
-        <v>449163.10014093702</v>
+        <f t="shared" si="31"/>
+        <v>460818.5021608806</v>
       </c>
       <c r="H59" s="107">
-        <f t="shared" si="32"/>
-        <v>510495.086549517</v>
+        <f t="shared" si="31"/>
+        <v>582593.90832258959</v>
       </c>
       <c r="I59" s="107">
-        <f t="shared" si="32"/>
-        <v>651745.54945057188</v>
+        <f t="shared" si="31"/>
+        <v>808748.02999197203</v>
       </c>
       <c r="J59" s="107">
-        <f t="shared" si="32"/>
-        <v>759511.40465321648</v>
+        <f t="shared" si="31"/>
+        <v>887704.94291683962</v>
       </c>
       <c r="K59" s="107">
-        <f t="shared" si="32"/>
-        <v>850208.97904180991</v>
+        <f t="shared" si="31"/>
+        <v>940925.23949184979</v>
       </c>
       <c r="L59" s="107">
-        <f t="shared" si="32"/>
-        <v>930033.96269367472</v>
+        <f t="shared" si="31"/>
+        <v>959729.74428168708</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -5620,11 +5665,11 @@
         <v>275</v>
       </c>
       <c r="C61" s="107">
-        <f t="shared" ref="C61:D61" si="33">C115+C113-C66</f>
+        <f t="shared" ref="C61:D61" si="32">C115+C113-C66</f>
         <v>577205</v>
       </c>
       <c r="D61" s="107">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>622343</v>
       </c>
       <c r="E61" s="107">
@@ -5632,32 +5677,32 @@
         <v>862374</v>
       </c>
       <c r="F61" s="107">
-        <f t="shared" ref="F61:L61" si="34">F115+F113-F66</f>
+        <f t="shared" ref="F61:L61" si="33">F115+F113-F66</f>
         <v>577200</v>
       </c>
       <c r="G61" s="107">
-        <f t="shared" ca="1" si="34"/>
-        <v>754889.95258611033</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>461548.57992054336</v>
       </c>
       <c r="H61" s="107">
-        <f t="shared" ca="1" si="34"/>
-        <v>803901.71143336128</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>467668.31173954834</v>
       </c>
       <c r="I61" s="107">
-        <f t="shared" ca="1" si="34"/>
-        <v>941381.55107752443</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>460161.63892277703</v>
       </c>
       <c r="J61" s="107">
-        <f t="shared" ca="1" si="34"/>
-        <v>913312.51476651547</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>370574.66907291248</v>
       </c>
       <c r="K61" s="107">
-        <f t="shared" ca="1" si="34"/>
-        <v>809914.07156265527</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>250241.17147813563</v>
       </c>
       <c r="L61" s="107">
-        <f t="shared" ca="1" si="34"/>
-        <v>749397.11673416267</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>194648.93101453572</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -5670,40 +5715,40 @@
         <v>25.212064296322179</v>
       </c>
       <c r="D62" s="210">
-        <f t="shared" ref="D62:E62" si="35">D61/D59</f>
+        <f t="shared" ref="D62:E62" si="34">D61/D59</f>
         <v>18.182277667406801</v>
       </c>
       <c r="E62" s="210">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1.748825834083664</v>
       </c>
       <c r="F62" s="210">
-        <f t="shared" ref="F62" si="36">F61/F59</f>
+        <f t="shared" ref="F62" si="35">F61/F59</f>
         <v>5.3203060189879254</v>
       </c>
       <c r="G62" s="210">
-        <f t="shared" ref="G62" ca="1" si="37">G61/G59</f>
-        <v>1.6806588794788424</v>
+        <f t="shared" ref="G62" ca="1" si="36">G61/G59</f>
+        <v>1.0015843065246715</v>
       </c>
       <c r="H62" s="210">
-        <f t="shared" ref="H62" ca="1" si="38">H61/H59</f>
-        <v>1.5747491652995262</v>
+        <f t="shared" ref="H62" ca="1" si="37">H61/H59</f>
+        <v>0.80273464081707235</v>
       </c>
       <c r="I62" s="210">
-        <f t="shared" ref="I62" ca="1" si="39">I61/I59</f>
-        <v>1.4444004287733436</v>
+        <f t="shared" ref="I62" ca="1" si="38">I61/I59</f>
+        <v>0.56898022852351771</v>
       </c>
       <c r="J62" s="210">
-        <f t="shared" ref="J62" ca="1" si="40">J61/J59</f>
-        <v>1.2025000667152888</v>
+        <f t="shared" ref="J62" ca="1" si="39">J61/J59</f>
+        <v>0.41745252409575462</v>
       </c>
       <c r="K62" s="210">
-        <f t="shared" ref="K62" ca="1" si="41">K61/K59</f>
-        <v>0.95260587870458957</v>
+        <f t="shared" ref="K62" ca="1" si="40">K61/K59</f>
+        <v>0.26595223613438124</v>
       </c>
       <c r="L62" s="210">
-        <f t="shared" ref="L62" ca="1" si="42">L61/L59</f>
-        <v>0.80577392524856817</v>
+        <f t="shared" ref="L62" ca="1" si="41">L61/L59</f>
+        <v>0.20281639927730005</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -5714,11 +5759,11 @@
       <c r="C63" s="210"/>
       <c r="D63" s="210"/>
       <c r="E63" s="210">
-        <f t="shared" ref="E63:F63" si="43">E61/E60</f>
+        <f t="shared" ref="E63:F63" si="42">E61/E60</f>
         <v>1.5733880678708265</v>
       </c>
       <c r="F63" s="210">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>3.4960629921259843</v>
       </c>
       <c r="G63" s="210"/>
@@ -5751,43 +5796,43 @@
         <v>(in thousands of USD, except per share data)</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" ref="C65:L65" si="44">C3</f>
+        <f t="shared" ref="C65:L65" si="43">C3</f>
         <v>2017</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2018</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2019</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2020</v>
       </c>
       <c r="G65" s="7" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2021E</v>
       </c>
       <c r="H65" s="7" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2022E</v>
       </c>
       <c r="I65" s="7" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2023E</v>
       </c>
       <c r="J65" s="7" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2024E</v>
       </c>
       <c r="K65" s="7" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2025E</v>
       </c>
       <c r="L65" s="7" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>Terminal</v>
       </c>
     </row>
@@ -5810,27 +5855,27 @@
       </c>
       <c r="G66" s="97">
         <f ca="1">G234</f>
-        <v>307782.92218528257</v>
+        <v>601124.29485084955</v>
       </c>
       <c r="H66" s="97">
-        <f t="shared" ref="H66:L66" ca="1" si="45">H234</f>
-        <v>-149814.54336953914</v>
+        <f t="shared" ref="H66:L66" ca="1" si="44">H234</f>
+        <v>186418.85632427374</v>
       </c>
       <c r="I66" s="97">
-        <f t="shared" ca="1" si="45"/>
-        <v>-295558.61124314764</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>185661.30091159977</v>
       </c>
       <c r="J66" s="97">
-        <f t="shared" ca="1" si="45"/>
-        <v>-425444.3619467169</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>117293.48374688614</v>
       </c>
       <c r="K66" s="97">
-        <f t="shared" ca="1" si="45"/>
-        <v>-329854.3371607631</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>229818.56292375654</v>
       </c>
       <c r="L66" s="97">
-        <f t="shared" ca="1" si="45"/>
-        <v>-276853.42662710778</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>277894.75909251918</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -5852,27 +5897,27 @@
       </c>
       <c r="G67" s="51">
         <f>G74+G68+G70+G71+G73</f>
-        <v>294407.33387019532</v>
+        <v>245076.45192884112</v>
       </c>
       <c r="H67" s="51">
-        <f t="shared" ref="H67:L67" si="46">H74+H68+H70+H71+H73</f>
-        <v>321808.12626607827</v>
+        <f t="shared" ref="H67:L67" si="45">H74+H68+H70+H71+H73</f>
+        <v>273894.85541129252</v>
       </c>
       <c r="I67" s="51">
-        <f t="shared" si="46"/>
-        <v>397009.43316943577</v>
+        <f t="shared" si="45"/>
+        <v>340235.28264392528</v>
       </c>
       <c r="J67" s="51">
-        <f t="shared" si="46"/>
-        <v>431276.04987137025</v>
+        <f t="shared" si="45"/>
+        <v>372796.37386615993</v>
       </c>
       <c r="K67" s="51">
-        <f t="shared" si="46"/>
-        <v>452464.40770022385</v>
+        <f t="shared" si="45"/>
+        <v>394847.80843495612</v>
       </c>
       <c r="L67" s="51">
-        <f t="shared" si="46"/>
-        <v>465825.25204739982</v>
+        <f t="shared" si="45"/>
+        <v>402376.44822678767</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -5880,8 +5925,12 @@
       <c r="B68" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="C68" s="15">
+        <v>-5054</v>
+      </c>
+      <c r="D68" s="15">
+        <v>-7547</v>
+      </c>
       <c r="E68" s="15">
         <f>E70+E71+E73</f>
         <v>-7184</v>
@@ -5892,27 +5941,27 @@
       </c>
       <c r="G68" s="51">
         <f>G69*G74</f>
-        <v>-19746.737774858204</v>
+        <v>-16638.505981875882</v>
       </c>
       <c r="H68" s="51">
-        <f t="shared" ref="H68:L68" si="47">H69*H74</f>
-        <v>-8250.6111863697479</v>
+        <f t="shared" ref="H68:L68" si="46">H69*H74</f>
+        <v>-7018.1339921916097</v>
       </c>
       <c r="I68" s="51">
-        <f t="shared" si="47"/>
-        <v>-9789.4757398330075</v>
+        <f t="shared" si="46"/>
+        <v>-8388.2656212434285</v>
       </c>
       <c r="J68" s="51">
-        <f t="shared" si="47"/>
-        <v>-10654.394191539584</v>
+        <f t="shared" si="46"/>
+        <v>-9207.9094216914764</v>
       </c>
       <c r="K68" s="51">
-        <f t="shared" si="47"/>
-        <v>-11187.113901116563</v>
+        <f t="shared" si="46"/>
+        <v>-9760.3839869929634</v>
       </c>
       <c r="L68" s="51">
-        <f t="shared" si="47"/>
-        <v>-11522.72731815006</v>
+        <f t="shared" si="46"/>
+        <v>-9955.5916667328238</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -5943,15 +5992,15 @@
         <v>-2.1894762507047832E-2</v>
       </c>
       <c r="J69" s="65">
-        <f t="shared" ref="J69:L69" si="48">I69</f>
+        <f t="shared" ref="J69:L69" si="47">I69</f>
         <v>-2.1894762507047832E-2</v>
       </c>
       <c r="K69" s="65">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>-2.1894762507047832E-2</v>
       </c>
       <c r="L69" s="65">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>-2.1894762507047832E-2</v>
       </c>
     </row>
@@ -5973,24 +6022,24 @@
         <v>-18994</v>
       </c>
       <c r="H70" s="51">
-        <f t="shared" ref="H70:L70" si="49">G68</f>
-        <v>-19746.737774858204</v>
+        <f t="shared" ref="H70:L70" si="48">G68</f>
+        <v>-16638.505981875882</v>
       </c>
       <c r="I70" s="51">
-        <f t="shared" si="49"/>
-        <v>-8250.6111863697479</v>
+        <f t="shared" si="48"/>
+        <v>-7018.1339921916097</v>
       </c>
       <c r="J70" s="51">
-        <f t="shared" si="49"/>
-        <v>-9789.4757398330075</v>
+        <f t="shared" si="48"/>
+        <v>-8388.2656212434285</v>
       </c>
       <c r="K70" s="51">
-        <f t="shared" si="49"/>
-        <v>-10654.394191539584</v>
+        <f t="shared" si="48"/>
+        <v>-9207.9094216914764</v>
       </c>
       <c r="L70" s="51">
-        <f t="shared" si="49"/>
-        <v>-11187.113901116563</v>
+        <f t="shared" si="48"/>
+        <v>-9760.3839869929634</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -6008,27 +6057,27 @@
       </c>
       <c r="G71" s="51">
         <f>G72*G74</f>
-        <v>-25737.983267411983</v>
+        <v>-21686.700529415961</v>
       </c>
       <c r="H71" s="51">
-        <f t="shared" ref="H71:L71" si="50">H72*H74</f>
-        <v>-27024.882430782582</v>
+        <f t="shared" ref="H71:L71" si="49">H72*H74</f>
+        <v>-22987.902561180919</v>
       </c>
       <c r="I71" s="51">
-        <f t="shared" si="50"/>
-        <v>-32065.434299588051</v>
+        <f t="shared" si="49"/>
+        <v>-27475.769623804448</v>
       </c>
       <c r="J71" s="51">
-        <f t="shared" si="50"/>
-        <v>-34898.475263656241</v>
+        <f t="shared" si="49"/>
+        <v>-30160.513437550275</v>
       </c>
       <c r="K71" s="51">
-        <f t="shared" si="50"/>
-        <v>-36643.399026839048</v>
+        <f t="shared" si="49"/>
+        <v>-31970.144243803286</v>
       </c>
       <c r="L71" s="51">
-        <f t="shared" si="50"/>
-        <v>-37742.700997644228</v>
+        <f t="shared" si="49"/>
+        <v>-32609.547128679355</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6051,23 +6100,23 @@
         <v>-7.1716309160269914E-2</v>
       </c>
       <c r="H72" s="65">
-        <f t="shared" ref="H72:L72" si="51">G72</f>
+        <f t="shared" ref="H72:L72" si="50">G72</f>
         <v>-7.1716309160269914E-2</v>
       </c>
       <c r="I72" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-7.1716309160269914E-2</v>
       </c>
       <c r="J72" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-7.1716309160269914E-2</v>
       </c>
       <c r="K72" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-7.1716309160269914E-2</v>
       </c>
       <c r="L72" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>-7.1716309160269914E-2</v>
       </c>
       <c r="M72" s="211"/>
@@ -6077,8 +6126,12 @@
       <c r="B73" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
+      <c r="C73" s="56">
+        <v>4224</v>
+      </c>
+      <c r="D73" s="56">
+        <v>1932</v>
+      </c>
       <c r="E73" s="56">
         <v>28015</v>
       </c>
@@ -6097,8 +6150,14 @@
       <c r="B74" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="15">
+        <f t="shared" ref="C74:D74" si="51">C67-C68</f>
+        <v>248419</v>
+      </c>
+      <c r="D74" s="15">
+        <f t="shared" si="51"/>
+        <v>324706</v>
+      </c>
       <c r="E74" s="15">
         <f>E67-E68</f>
         <v>328115</v>
@@ -6109,27 +6168,27 @@
       </c>
       <c r="G74" s="51">
         <f t="shared" ref="G74:L74" si="52">G4/G75</f>
-        <v>358886.05491246551</v>
+        <v>302395.65844013297</v>
       </c>
       <c r="H74" s="51">
         <f t="shared" si="52"/>
-        <v>376830.35765808879</v>
+        <v>320539.39794654096</v>
       </c>
       <c r="I74" s="51">
         <f t="shared" si="52"/>
-        <v>447114.95439522655</v>
+        <v>383117.4518811648</v>
       </c>
       <c r="J74" s="51">
         <f t="shared" si="52"/>
-        <v>486618.39506639907</v>
+        <v>420553.06234664517</v>
       </c>
       <c r="K74" s="51">
         <f t="shared" si="52"/>
-        <v>510949.314819719</v>
+        <v>445786.24608744384</v>
       </c>
       <c r="L74" s="51">
         <f t="shared" si="52"/>
-        <v>526277.79426431062</v>
+        <v>454701.97100919276</v>
       </c>
       <c r="M74" s="97"/>
     </row>
@@ -6139,35 +6198,41 @@
         <v>74</v>
       </c>
       <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
+      <c r="D75" s="54">
+        <f t="shared" ref="D75:E75" si="53">D4/((D74+C74)/2)</f>
+        <v>10.149845147219192</v>
+      </c>
+      <c r="E75" s="54">
+        <f t="shared" si="53"/>
+        <v>8.6513791682559233</v>
+      </c>
       <c r="F75" s="54">
         <f>F4/((F74+E74)/2)</f>
         <v>7.2896103489952884</v>
       </c>
       <c r="G75" s="64">
-        <f>F75</f>
-        <v>7.2896103489952884</v>
+        <f>CHOOSE($U$4,growth!E39,growth!E40)</f>
+        <v>8.6513791682559233</v>
       </c>
       <c r="H75" s="64">
-        <f t="shared" ref="H75:L75" si="53">G75</f>
-        <v>7.2896103489952884</v>
+        <f>CHOOSE($U$4,growth!F39,growth!F40)</f>
+        <v>8.6513791682559233</v>
       </c>
       <c r="I75" s="64">
-        <f t="shared" si="53"/>
-        <v>7.2896103489952884</v>
+        <f>CHOOSE($U$4,growth!G39,growth!G40)</f>
+        <v>8.6513791682559233</v>
       </c>
       <c r="J75" s="64">
-        <f t="shared" si="53"/>
-        <v>7.2896103489952884</v>
+        <f>CHOOSE($U$4,growth!H39,growth!H40)</f>
+        <v>8.6513791682559233</v>
       </c>
       <c r="K75" s="64">
-        <f t="shared" si="53"/>
-        <v>7.2896103489952884</v>
+        <f>CHOOSE($U$4,growth!I39,growth!I40)</f>
+        <v>8.6513791682559233</v>
       </c>
       <c r="L75" s="64">
-        <f t="shared" si="53"/>
-        <v>7.2896103489952884</v>
+        <f>CHOOSE($U$4,growth!J39,growth!J40)</f>
+        <v>8.6513791682559233</v>
       </c>
       <c r="M75" s="212"/>
     </row>
@@ -6208,27 +6273,27 @@
       </c>
       <c r="G77" s="61">
         <f t="shared" ref="G77:L77" si="54">G6/G81</f>
-        <v>1175213.2010224725</v>
+        <v>942170.09672446293</v>
       </c>
       <c r="H77" s="61">
         <f t="shared" si="54"/>
-        <v>1215605.4824329908</v>
+        <v>961534.79626396531</v>
       </c>
       <c r="I77" s="61">
         <f t="shared" si="54"/>
-        <v>1420540.0445685538</v>
+        <v>1104831.4474000002</v>
       </c>
       <c r="J77" s="61">
         <f t="shared" si="54"/>
-        <v>1522327.475398975</v>
+        <v>1212788.0009106665</v>
       </c>
       <c r="K77" s="61">
         <f t="shared" si="54"/>
-        <v>1573537.9192457248</v>
+        <v>1285555.2809653068</v>
       </c>
       <c r="L77" s="61">
         <f t="shared" si="54"/>
-        <v>1595090.9490022012</v>
+        <v>1311266.3865846128</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -6310,28 +6375,28 @@
         <v>1.6835729903305761</v>
       </c>
       <c r="G81" s="66">
-        <f>F81</f>
-        <v>1.6835729903305761</v>
+        <f>CHOOSE($U$4,growth!E42,growth!E43)</f>
+        <v>2.1</v>
       </c>
       <c r="H81" s="66">
-        <f t="shared" ref="H81:L81" si="55">G81</f>
-        <v>1.6835729903305761</v>
+        <f>CHOOSE($U$4,growth!F42,growth!F43)</f>
+        <v>2.1</v>
       </c>
       <c r="I81" s="66">
-        <f t="shared" si="55"/>
-        <v>1.6835729903305761</v>
+        <f>CHOOSE($U$4,growth!G42,growth!G43)</f>
+        <v>2.1</v>
       </c>
       <c r="J81" s="66">
-        <f t="shared" si="55"/>
-        <v>1.6835729903305761</v>
+        <f>CHOOSE($U$4,growth!H42,growth!H43)</f>
+        <v>2.1</v>
       </c>
       <c r="K81" s="66">
-        <f t="shared" si="55"/>
-        <v>1.6835729903305761</v>
+        <f>CHOOSE($U$4,growth!I42,growth!I43)</f>
+        <v>2.1</v>
       </c>
       <c r="L81" s="66">
-        <f t="shared" si="55"/>
-        <v>1.6835729903305761</v>
+        <f>CHOOSE($U$4,growth!J42,growth!J43)</f>
+        <v>2.1</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -6352,28 +6417,28 @@
         <v>110105</v>
       </c>
       <c r="G82" s="92">
-        <f t="shared" ref="G82:L82" si="56">G85*G4</f>
+        <f t="shared" ref="G82:L82" si="55">G85*G4</f>
         <v>64839.795236756516</v>
       </c>
       <c r="H82" s="92">
-        <f t="shared" si="56"/>
-        <v>68081.784998594347</v>
+        <f t="shared" si="55"/>
+        <v>68730.182950961913</v>
       </c>
       <c r="I82" s="92">
-        <f t="shared" si="56"/>
-        <v>80780.07404703775</v>
+        <f t="shared" si="55"/>
+        <v>82148.193726533311</v>
       </c>
       <c r="J82" s="92">
-        <f t="shared" si="56"/>
-        <v>87917.144348894202</v>
+        <f t="shared" si="55"/>
+        <v>90175.151949629872</v>
       </c>
       <c r="K82" s="92">
-        <f t="shared" si="56"/>
-        <v>92313.00156633892</v>
+        <f t="shared" si="55"/>
+        <v>95585.661066607674</v>
       </c>
       <c r="L82" s="92">
-        <f t="shared" si="56"/>
-        <v>95082.391613329091</v>
+        <f t="shared" si="55"/>
+        <v>97497.374287939834</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -6442,23 +6507,23 @@
         <v>2.4784532796036495E-2</v>
       </c>
       <c r="H85" s="31">
-        <f t="shared" ref="H85:L85" si="57">G85</f>
+        <f t="shared" ref="H85:L85" si="56">G85</f>
         <v>2.4784532796036495E-2</v>
       </c>
       <c r="I85" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>2.4784532796036495E-2</v>
       </c>
       <c r="J85" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>2.4784532796036495E-2</v>
       </c>
       <c r="K85" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>2.4784532796036495E-2</v>
       </c>
       <c r="L85" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>2.4784532796036495E-2</v>
       </c>
     </row>
@@ -6468,11 +6533,11 @@
         <v>16</v>
       </c>
       <c r="C86" s="106">
-        <f t="shared" ref="C86:D86" si="58">C66+C67+C76+C77+C82</f>
+        <f t="shared" ref="C86:D86" si="57">C66+C67+C76+C77+C82</f>
         <v>1307881</v>
       </c>
       <c r="D86" s="106">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1382911</v>
       </c>
       <c r="E86" s="106">
@@ -6485,27 +6550,27 @@
       </c>
       <c r="G86" s="131">
         <f ca="1">G66+G67+G76+G77+G82</f>
-        <v>1842243.2523147068</v>
+        <v>1853210.6387409102</v>
       </c>
       <c r="H86" s="131">
-        <f t="shared" ref="H86:L86" ca="1" si="59">H66+H67+H76+H77+H82</f>
-        <v>1455680.8503281241</v>
+        <f t="shared" ref="H86:L86" ca="1" si="58">H66+H67+H76+H77+H82</f>
+        <v>1490578.6909504933</v>
       </c>
       <c r="I86" s="131">
-        <f t="shared" ca="1" si="59"/>
-        <v>1602770.9405418797</v>
+        <f t="shared" ca="1" si="58"/>
+        <v>1712876.2246820584</v>
       </c>
       <c r="J86" s="131">
-        <f t="shared" ca="1" si="59"/>
-        <v>1616076.3076725225</v>
+        <f t="shared" ca="1" si="58"/>
+        <v>1793053.0104733424</v>
       </c>
       <c r="K86" s="131">
-        <f t="shared" ca="1" si="59"/>
-        <v>1788460.9913515244</v>
+        <f t="shared" ca="1" si="58"/>
+        <v>2005807.313390627</v>
       </c>
       <c r="L86" s="131">
-        <f t="shared" ca="1" si="59"/>
-        <v>1879145.1660358224</v>
+        <f t="shared" ca="1" si="58"/>
+        <v>2089034.9681918595</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -6530,24 +6595,24 @@
         <v>849617.30444287742</v>
       </c>
       <c r="H87" s="86">
-        <f t="shared" ref="H87:L87" si="60">G87+(-H190)-H148</f>
-        <v>787472.74992485112</v>
+        <f t="shared" ref="H87:L87" si="59">G87+(-H190)-H148</f>
+        <v>786880.89702467946</v>
       </c>
       <c r="I87" s="86">
-        <f t="shared" si="60"/>
-        <v>713737.29020254826</v>
+        <f t="shared" si="59"/>
+        <v>711896.62768301438</v>
       </c>
       <c r="J87" s="86">
-        <f t="shared" si="60"/>
-        <v>633487.16500133858</v>
+        <f t="shared" si="59"/>
+        <v>629585.40968805761</v>
       </c>
       <c r="K87" s="86">
-        <f t="shared" si="60"/>
-        <v>549224.53354006831</v>
+        <f t="shared" si="59"/>
+        <v>542335.51861340343</v>
       </c>
       <c r="L87" s="86">
-        <f t="shared" si="60"/>
-        <v>462434.02313495992</v>
+        <f t="shared" si="59"/>
+        <v>453340.62971725623</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -6648,24 +6713,24 @@
         <v>40092.754017108164</v>
       </c>
       <c r="H93" s="97">
-        <f t="shared" ref="H93:L93" si="61">G93-H155</f>
-        <v>19772.895735071736</v>
+        <f t="shared" ref="H93:L93" si="60">G93-H155</f>
+        <v>19579.373275242819</v>
       </c>
       <c r="I93" s="97">
-        <f t="shared" si="61"/>
-        <v>-4336.9253673289422</v>
+        <f t="shared" si="60"/>
+        <v>-4938.7802173968776</v>
       </c>
       <c r="J93" s="97">
-        <f t="shared" si="61"/>
-        <v>-30576.894160270465</v>
+        <f t="shared" si="60"/>
+        <v>-31852.679555015766</v>
       </c>
       <c r="K93" s="97">
-        <f t="shared" si="61"/>
-        <v>-58128.861392859064</v>
+        <f t="shared" si="60"/>
+        <v>-60381.412852891786</v>
       </c>
       <c r="L93" s="97">
-        <f t="shared" si="61"/>
-        <v>-86507.387642425325</v>
+        <f t="shared" si="60"/>
+        <v>-89480.720816725327</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -6690,24 +6755,24 @@
         <v>267366.39748091792</v>
       </c>
       <c r="H94" s="51">
-        <f t="shared" ref="H94:L94" si="62">G94+(-H198)-H158</f>
-        <v>242709.9599077568</v>
+        <f t="shared" ref="H94:L94" si="61">G94+(-H198)-H158</f>
+        <v>242481.80335944094</v>
       </c>
       <c r="I94" s="51">
-        <f t="shared" si="62"/>
-        <v>213585.28213082789</v>
+        <f t="shared" si="61"/>
+        <v>212875.71526556567</v>
       </c>
       <c r="J94" s="51">
-        <f t="shared" si="62"/>
-        <v>181949.23102334933</v>
+        <f t="shared" si="61"/>
+        <v>180445.12244435464</v>
       </c>
       <c r="K94" s="51">
-        <f t="shared" si="62"/>
-        <v>148766.37736049684</v>
+        <f t="shared" si="61"/>
+        <v>146110.69405387098</v>
       </c>
       <c r="L94" s="51">
-        <f t="shared" si="62"/>
-        <v>114609.0380877588</v>
+        <f t="shared" si="61"/>
+        <v>111103.57709557764</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6832,23 +6897,23 @@
         <v>206636</v>
       </c>
       <c r="H100" s="97">
-        <f t="shared" ref="H100:L100" si="63">G100-H169</f>
+        <f t="shared" ref="H100:L100" si="62">G100-H169</f>
         <v>206636</v>
       </c>
       <c r="I100" s="97">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>206636</v>
       </c>
       <c r="J100" s="97">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>206636</v>
       </c>
       <c r="K100" s="97">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>206636</v>
       </c>
       <c r="L100" s="97">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>206636</v>
       </c>
     </row>
@@ -6870,23 +6935,23 @@
         <v>17689</v>
       </c>
       <c r="H101" s="97">
-        <f t="shared" ref="H101:L101" si="64">G101</f>
+        <f t="shared" ref="H101:L101" si="63">G101</f>
         <v>17689</v>
       </c>
       <c r="I101" s="97">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>17689</v>
       </c>
       <c r="J101" s="97">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>17689</v>
       </c>
       <c r="K101" s="97">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>17689</v>
       </c>
       <c r="L101" s="97">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>17689</v>
       </c>
     </row>
@@ -6908,28 +6973,28 @@
         <v>6004</v>
       </c>
       <c r="G102" s="11">
-        <f t="shared" ref="G102:L102" si="65">G103*G4</f>
+        <f t="shared" ref="G102:L102" si="64">G103*G4</f>
         <v>7927.8715120962452</v>
       </c>
       <c r="H102" s="11">
-        <f t="shared" si="65"/>
-        <v>8324.2650877010583</v>
+        <f t="shared" si="64"/>
+        <v>8403.5438028220196</v>
       </c>
       <c r="I102" s="11">
-        <f t="shared" si="65"/>
-        <v>9876.8672147116304</v>
+        <f t="shared" si="64"/>
+        <v>10044.145303616862</v>
       </c>
       <c r="J102" s="11">
-        <f t="shared" si="65"/>
-        <v>10749.506866322386</v>
+        <f t="shared" si="64"/>
+        <v>11025.590312709048</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="65"/>
-        <v>11286.982209638505</v>
+        <f t="shared" si="64"/>
+        <v>11687.125731471589</v>
       </c>
       <c r="L102" s="11">
-        <f t="shared" si="65"/>
-        <v>11625.591675927662</v>
+        <f t="shared" si="64"/>
+        <v>11920.868246101023</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -6958,23 +7023,23 @@
         <v>3.030370327001387E-3</v>
       </c>
       <c r="H103" s="25">
-        <f t="shared" ref="H103:L103" si="66">G103</f>
+        <f t="shared" ref="H103:L103" si="65">G103</f>
         <v>3.030370327001387E-3</v>
       </c>
       <c r="I103" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>3.030370327001387E-3</v>
       </c>
       <c r="J103" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>3.030370327001387E-3</v>
       </c>
       <c r="K103" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>3.030370327001387E-3</v>
       </c>
       <c r="L103" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>3.030370327001387E-3</v>
       </c>
     </row>
@@ -6984,11 +7049,11 @@
         <v>23</v>
       </c>
       <c r="C104" s="106">
-        <f t="shared" ref="C104:D104" si="67">C86+C87+C93+C94+C100+C101+C102</f>
+        <f t="shared" ref="C104:D104" si="66">C86+C87+C93+C94+C100+C101+C102</f>
         <v>2980705</v>
       </c>
       <c r="D104" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>3004596</v>
       </c>
       <c r="E104" s="106">
@@ -7001,27 +7066,27 @@
       </c>
       <c r="G104" s="131">
         <f ca="1">G86+G87+G93+G94+G100+G101+G102</f>
-        <v>3231572.5797677068</v>
+        <v>3242539.9661939102</v>
       </c>
       <c r="H104" s="131">
-        <f t="shared" ref="H104:L104" ca="1" si="68">H86+H87+H93+H94+H100+H101+H102</f>
-        <v>2738285.7209835043</v>
+        <f t="shared" ref="H104:L104" ca="1" si="67">H86+H87+H93+H94+H100+H101+H102</f>
+        <v>2772249.3084126785</v>
       </c>
       <c r="I104" s="131">
-        <f t="shared" ca="1" si="68"/>
-        <v>2759958.4547226387</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>2867078.9327168581</v>
       </c>
       <c r="J104" s="131">
-        <f t="shared" ca="1" si="68"/>
-        <v>2636010.3164032623</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>2806581.4533634479</v>
       </c>
       <c r="K104" s="131">
-        <f t="shared" ca="1" si="68"/>
-        <v>2663935.023068869</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>2869884.2389364811</v>
       </c>
       <c r="L104" s="131">
-        <f t="shared" ca="1" si="68"/>
-        <v>2605631.4312920435</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>2800244.3224340687</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -7042,28 +7107,28 @@
         <v>343722</v>
       </c>
       <c r="G105" s="92">
-        <f t="shared" ref="G105:L105" si="69">G6/G108</f>
+        <f t="shared" ref="G105:L105" si="68">G6/G108</f>
         <v>351760.92863858287</v>
       </c>
       <c r="H105" s="92">
-        <f t="shared" si="69"/>
-        <v>363851.01272412</v>
+        <f t="shared" si="68"/>
+        <v>358990.77462552744</v>
       </c>
       <c r="I105" s="92">
-        <f t="shared" si="69"/>
-        <v>425191.34809835523</v>
+        <f t="shared" si="68"/>
+        <v>412490.8413859267</v>
       </c>
       <c r="J105" s="92">
-        <f t="shared" si="69"/>
-        <v>455658.02526084211</v>
+        <f t="shared" si="68"/>
+        <v>452796.61806845566</v>
       </c>
       <c r="K105" s="92">
-        <f t="shared" si="69"/>
-        <v>470986.16594872251</v>
+        <f t="shared" si="68"/>
+        <v>479964.41515256307</v>
       </c>
       <c r="L105" s="92">
-        <f t="shared" si="69"/>
-        <v>477437.34753476753</v>
+        <f t="shared" si="68"/>
+        <v>489563.70345561433</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -7132,23 +7197,23 @@
         <v>5.6247213434958914</v>
       </c>
       <c r="H108" s="135">
-        <f t="shared" ref="H108:L108" si="70">G108</f>
+        <f t="shared" ref="H108:L108" si="69">G108</f>
         <v>5.6247213434958914</v>
       </c>
       <c r="I108" s="135">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>5.6247213434958914</v>
       </c>
       <c r="J108" s="135">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>5.6247213434958914</v>
       </c>
       <c r="K108" s="135">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>5.6247213434958914</v>
       </c>
       <c r="L108" s="135">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>5.6247213434958914</v>
       </c>
     </row>
@@ -7183,23 +7248,23 @@
         <v>12071.885221051654</v>
       </c>
       <c r="H110" s="11">
-        <f t="shared" ref="H110:L110" si="71">H115*H111</f>
+        <f t="shared" ref="H110:L110" si="70">H115*H111</f>
         <v>10418.128850477184</v>
       </c>
       <c r="I110" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>8826.2948235501754</v>
       </c>
       <c r="J110" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>7294.0645541045988</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>5790.0274209310182</v>
       </c>
       <c r="L110" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>4342.3066266547839</v>
       </c>
     </row>
@@ -7223,23 +7288,23 @@
         <v>0.19261738455568492</v>
       </c>
       <c r="H111" s="24">
-        <f t="shared" ref="H111:L111" si="72">G111</f>
+        <f t="shared" ref="H111:L111" si="71">G111</f>
         <v>0.19261738455568492</v>
       </c>
       <c r="I111" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0.19261738455568492</v>
       </c>
       <c r="J111" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0.19261738455568492</v>
       </c>
       <c r="K111" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0.19261738455568492</v>
       </c>
       <c r="L111" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0.19261738455568492</v>
       </c>
     </row>
@@ -7249,11 +7314,11 @@
         <v>27</v>
       </c>
       <c r="C112" s="106">
-        <f t="shared" ref="C112:D112" si="73">C105+C109+C110</f>
+        <f t="shared" ref="C112:D112" si="72">C105+C109+C110</f>
         <v>258476</v>
       </c>
       <c r="D112" s="106">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>346985</v>
       </c>
       <c r="E112" s="106">
@@ -7269,24 +7334,24 @@
         <v>363832.81385963451</v>
       </c>
       <c r="H112" s="131">
-        <f t="shared" ref="H112:L112" si="74">H105+H109+H110</f>
-        <v>374269.14157459716</v>
+        <f t="shared" ref="H112:L112" si="73">H105+H109+H110</f>
+        <v>369408.90347600461</v>
       </c>
       <c r="I112" s="131">
-        <f t="shared" si="74"/>
-        <v>434017.64292190538</v>
+        <f t="shared" si="73"/>
+        <v>421317.13620947686</v>
       </c>
       <c r="J112" s="131">
-        <f t="shared" si="74"/>
-        <v>462952.0898149467</v>
+        <f t="shared" si="73"/>
+        <v>460090.68262256024</v>
       </c>
       <c r="K112" s="131">
-        <f t="shared" si="74"/>
-        <v>476776.19336965354</v>
+        <f t="shared" si="73"/>
+        <v>485754.4425734941</v>
       </c>
       <c r="L112" s="131">
-        <f t="shared" si="74"/>
-        <v>481779.65416142234</v>
+        <f t="shared" si="73"/>
+        <v>493906.01008226915</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -7315,19 +7380,19 @@
         <v>600000</v>
       </c>
       <c r="I113" s="97">
-        <f t="shared" ref="I113:L113" si="75">H113+I212-(-I213)</f>
+        <f t="shared" ref="I113:L113" si="74">H113+I212-(-I213)</f>
         <v>600000</v>
       </c>
       <c r="J113" s="97">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>450000</v>
       </c>
       <c r="K113" s="97">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>450000</v>
       </c>
       <c r="L113" s="97">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>450000</v>
       </c>
       <c r="O113" s="130"/>
@@ -7350,23 +7415,23 @@
         <v>50600.989550341168</v>
       </c>
       <c r="H114" s="11">
-        <f t="shared" ref="H114:L114" si="76">(1-H111)*H115</f>
+        <f t="shared" ref="H114:L114" si="75">(1-H111)*H115</f>
         <v>43669.039213344935</v>
       </c>
       <c r="I114" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>36996.645010826658</v>
       </c>
       <c r="J114" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>30574.088265694041</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>24269.706980961168</v>
       </c>
       <c r="L114" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>18201.38348040012</v>
       </c>
     </row>
@@ -7390,23 +7455,23 @@
         <v>62672.874771392817</v>
       </c>
       <c r="H115" s="11">
-        <f t="shared" ref="H115:L115" si="77">G115-(-H214)</f>
+        <f t="shared" ref="H115:L115" si="76">G115-(-H214)</f>
         <v>54087.168063822115</v>
       </c>
       <c r="I115" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>45822.939834376833</v>
       </c>
       <c r="J115" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>37868.152819798641</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>30059.734401892187</v>
       </c>
       <c r="L115" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>22543.690107054903</v>
       </c>
     </row>
@@ -7440,27 +7505,27 @@
       <c r="E117" s="99"/>
       <c r="F117" s="99"/>
       <c r="G117" s="99">
-        <f t="shared" ref="G117:L117" si="78">G26</f>
+        <f t="shared" ref="G117:L117" si="77">G26</f>
         <v>0</v>
       </c>
       <c r="H117" s="99">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="I117" s="99">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J117" s="99">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K117" s="99">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="L117" s="99">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
     </row>
@@ -7486,24 +7551,24 @@
         <v>43709.718133333176</v>
       </c>
       <c r="H118" s="36">
-        <f t="shared" ref="H118:L118" si="79">H119+H127+H129</f>
-        <v>45550.155851523392</v>
+        <f t="shared" ref="H118:L118" si="78">H119+H127+H129</f>
+        <v>45862.107824330313</v>
       </c>
       <c r="I118" s="36">
-        <f t="shared" si="79"/>
-        <v>51946.42680726033</v>
+        <f t="shared" si="78"/>
+        <v>52604.645469882933</v>
       </c>
       <c r="J118" s="36">
-        <f t="shared" si="79"/>
-        <v>55673.565507699961</v>
+        <f t="shared" si="78"/>
+        <v>56759.919841624818</v>
       </c>
       <c r="K118" s="36">
-        <f t="shared" si="79"/>
-        <v>58088.454597617143</v>
+        <f t="shared" si="78"/>
+        <v>59662.970037874744</v>
       </c>
       <c r="L118" s="36">
-        <f t="shared" si="79"/>
-        <v>59727.559196698174</v>
+        <f t="shared" si="78"/>
+        <v>60889.436107148809</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -7522,28 +7587,28 @@
         <v>19889</v>
       </c>
       <c r="G119" s="36">
-        <f t="shared" ref="G119:L119" si="80">G126*G4</f>
+        <f t="shared" ref="G119:L119" si="79">G126*G4</f>
         <v>26262.064707542009</v>
       </c>
       <c r="H119" s="36">
-        <f t="shared" si="80"/>
-        <v>27575.16794291911</v>
+        <f t="shared" si="79"/>
+        <v>27837.788589994532</v>
       </c>
       <c r="I119" s="36">
-        <f t="shared" si="80"/>
-        <v>32718.356434610199</v>
+        <f t="shared" si="79"/>
+        <v>33272.485999939337</v>
       </c>
       <c r="J119" s="36">
-        <f t="shared" si="80"/>
-        <v>35609.084287855752</v>
+        <f t="shared" si="79"/>
+        <v>36523.645191450742</v>
       </c>
       <c r="K119" s="36">
-        <f t="shared" si="80"/>
-        <v>37389.538502248542</v>
+        <f t="shared" si="79"/>
+        <v>38715.063902937785</v>
       </c>
       <c r="L119" s="36">
-        <f t="shared" si="80"/>
-        <v>38511.224657316001</v>
+        <f t="shared" si="79"/>
+        <v>39489.365180996545</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -7686,23 +7751,23 @@
         <v>1.0038480252120351E-2</v>
       </c>
       <c r="H126" s="39">
-        <f t="shared" ref="H126:L126" si="81">G126</f>
+        <f t="shared" ref="H126:L126" si="80">G126</f>
         <v>1.0038480252120351E-2</v>
       </c>
       <c r="I126" s="39">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>1.0038480252120351E-2</v>
       </c>
       <c r="J126" s="39">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>1.0038480252120351E-2</v>
       </c>
       <c r="K126" s="39">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>1.0038480252120351E-2</v>
       </c>
       <c r="L126" s="39">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>1.0038480252120351E-2</v>
       </c>
     </row>
@@ -7720,28 +7785,28 @@
         <v>3736</v>
       </c>
       <c r="G127" s="36">
-        <f t="shared" ref="G127:L127" si="82">G128*G4</f>
+        <f t="shared" ref="G127:L127" si="81">G128*G4</f>
         <v>4933.1325731498291</v>
       </c>
       <c r="H127" s="36">
-        <f t="shared" si="82"/>
-        <v>5179.7892018073208</v>
+        <f t="shared" si="81"/>
+        <v>5229.1205275388184</v>
       </c>
       <c r="I127" s="36">
-        <f t="shared" si="82"/>
-        <v>6145.8987198805216</v>
+        <f t="shared" si="81"/>
+        <v>6249.9878171739838</v>
       </c>
       <c r="J127" s="36">
-        <f t="shared" si="82"/>
-        <v>6688.9003418688271</v>
+        <f t="shared" si="81"/>
+        <v>6860.6937721987006</v>
       </c>
       <c r="K127" s="36">
-        <f t="shared" si="82"/>
-        <v>7023.3453589622677</v>
+        <f t="shared" si="81"/>
+        <v>7272.335398530623</v>
       </c>
       <c r="L127" s="36">
-        <f t="shared" si="82"/>
-        <v>7234.0457197311371</v>
+        <f t="shared" si="81"/>
+        <v>7417.7821065012358</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -7764,23 +7829,23 @@
         <v>1.8856534879542275E-3</v>
       </c>
       <c r="H128" s="39">
-        <f t="shared" ref="H128:L128" si="83">G128</f>
+        <f t="shared" ref="H128:L128" si="82">G128</f>
         <v>1.8856534879542275E-3</v>
       </c>
       <c r="I128" s="39">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.8856534879542275E-3</v>
       </c>
       <c r="J128" s="39">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.8856534879542275E-3</v>
       </c>
       <c r="K128" s="39">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.8856534879542275E-3</v>
       </c>
       <c r="L128" s="39">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>1.8856534879542275E-3</v>
       </c>
     </row>
@@ -7804,23 +7869,23 @@
         <v>12514.520852641335</v>
       </c>
       <c r="H129" s="21">
-        <f t="shared" ref="H129:L129" si="84">H130+H131+H132+H133+H134</f>
+        <f t="shared" ref="H129:L129" si="83">H130+H131+H132+H133+H134</f>
         <v>12795.19870679696</v>
       </c>
       <c r="I129" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>13082.171652769608</v>
       </c>
       <c r="J129" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>13375.580877975377</v>
       </c>
       <c r="K129" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>13675.570736406335</v>
       </c>
       <c r="L129" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>13982.288819651036</v>
       </c>
     </row>
@@ -7842,23 +7907,23 @@
         <v>12240</v>
       </c>
       <c r="H130" s="36">
-        <f t="shared" ref="H130:L130" si="85">G129</f>
+        <f t="shared" ref="H130:L130" si="84">G129</f>
         <v>12514.520852641335</v>
       </c>
       <c r="I130" s="36">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>12795.19870679696</v>
       </c>
       <c r="J130" s="36">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>13082.171652769608</v>
       </c>
       <c r="K130" s="36">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>13375.580877975377</v>
       </c>
       <c r="L130" s="36">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>13675.570736406335</v>
       </c>
     </row>
@@ -7936,23 +8001,23 @@
         <v>274.52085264133456</v>
       </c>
       <c r="H134" s="36">
-        <f t="shared" ref="H134:L134" si="86">H135*H130</f>
+        <f t="shared" ref="H134:L134" si="85">H135*H130</f>
         <v>280.67785415562588</v>
       </c>
       <c r="I134" s="36">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>286.97294597264727</v>
       </c>
       <c r="J134" s="36">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>293.40922520576879</v>
       </c>
       <c r="K134" s="36">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>299.98985843095841</v>
       </c>
       <c r="L134" s="36">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>306.71808324470186</v>
       </c>
     </row>
@@ -7976,23 +8041,23 @@
         <v>2.242817423540315E-2</v>
       </c>
       <c r="H135" s="39">
-        <f t="shared" ref="H135:L135" si="87">G135</f>
+        <f t="shared" ref="H135:L135" si="86">G135</f>
         <v>2.242817423540315E-2</v>
       </c>
       <c r="I135" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2.242817423540315E-2</v>
       </c>
       <c r="J135" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2.242817423540315E-2</v>
       </c>
       <c r="K135" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2.242817423540315E-2</v>
       </c>
       <c r="L135" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2.242817423540315E-2</v>
       </c>
     </row>
@@ -8022,24 +8087,24 @@
         <v>1458143.5215433089</v>
       </c>
       <c r="H136" s="131">
-        <f t="shared" ref="H136:L136" si="88">H112+H113+H114+H117+H118</f>
-        <v>1063488.3366394655</v>
+        <f t="shared" ref="H136:L136" si="87">H112+H113+H114+H117+H118</f>
+        <v>1058940.0505136799</v>
       </c>
       <c r="I136" s="131">
-        <f t="shared" si="88"/>
-        <v>1122960.7147399925</v>
+        <f t="shared" si="87"/>
+        <v>1110918.4266901866</v>
       </c>
       <c r="J136" s="131">
-        <f t="shared" si="88"/>
-        <v>999199.74358834082</v>
+        <f t="shared" si="87"/>
+        <v>997424.69072987919</v>
       </c>
       <c r="K136" s="131">
-        <f t="shared" si="88"/>
-        <v>1009134.3549482318</v>
+        <f t="shared" si="87"/>
+        <v>1019687.11959233</v>
       </c>
       <c r="L136" s="131">
-        <f t="shared" si="88"/>
-        <v>1009708.5968385205</v>
+        <f t="shared" si="87"/>
+        <v>1022996.8296698179</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -8064,23 +8129,23 @@
         <v>183938</v>
       </c>
       <c r="H137" s="97">
-        <f t="shared" ref="H137:L137" si="89">G137-(-H225)-(-H221)-(-H228)</f>
+        <f t="shared" ref="H137:L137" si="88">G137-(-H225)-(-H221)-(-H228)</f>
         <v>183938</v>
       </c>
       <c r="I137" s="97">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>183938</v>
       </c>
       <c r="J137" s="97">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>183938</v>
       </c>
       <c r="K137" s="97">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>183938</v>
       </c>
       <c r="L137" s="97">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>183938</v>
       </c>
     </row>
@@ -8106,24 +8171,24 @@
         <v>33853.265068480396</v>
       </c>
       <c r="H138" s="97">
-        <f t="shared" ref="H138:L138" si="90">G138+H176-(-H216)</f>
-        <v>49681.834498216071</v>
+        <f t="shared" ref="H138:L138" si="89">G138+H176-(-H216)</f>
+        <v>49832.582778499265</v>
       </c>
       <c r="I138" s="97">
-        <f t="shared" si="90"/>
-        <v>68462.673023808864</v>
+        <f t="shared" si="89"/>
+        <v>68931.500175489607</v>
       </c>
       <c r="J138" s="97">
-        <f t="shared" si="90"/>
-        <v>88902.83368380474</v>
+        <f t="shared" si="89"/>
+        <v>89896.632824422806</v>
       </c>
       <c r="K138" s="97">
-        <f t="shared" si="90"/>
-        <v>110365.0023768004</v>
+        <f t="shared" si="89"/>
+        <v>112119.67343229199</v>
       </c>
       <c r="L138" s="97">
-        <f t="shared" si="90"/>
-        <v>132471.03613058594</v>
+        <f t="shared" si="89"/>
+        <v>134787.17485231857</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -8144,28 +8209,28 @@
         <v>1359061</v>
       </c>
       <c r="G139" s="97">
-        <f t="shared" ref="G139:L139" ca="1" si="91">F139+G48-(-G217)-(-G226)-(-G222)-(-G229)</f>
-        <v>1564675.7931559174</v>
+        <f t="shared" ref="G139:L139" ca="1" si="90">F139+G48-(-G217)-(-G226)-(-G222)-(-G229)</f>
+        <v>1575643.1795821206</v>
       </c>
       <c r="H139" s="97">
-        <f t="shared" ca="1" si="91"/>
-        <v>1514813.8202649448</v>
+        <f t="shared" ca="1" si="90"/>
+        <v>1568641.4870630333</v>
       </c>
       <c r="I139" s="97">
-        <f t="shared" ca="1" si="91"/>
-        <v>1563409.9988056289</v>
+        <f t="shared" ca="1" si="90"/>
+        <v>1738020.1279058552</v>
       </c>
       <c r="J139" s="97">
-        <f t="shared" ca="1" si="91"/>
-        <v>1697974.9481676798</v>
+        <f t="shared" ca="1" si="90"/>
+        <v>1963823.8609624179</v>
       </c>
       <c r="K139" s="97">
-        <f t="shared" ca="1" si="91"/>
-        <v>1913472.8391189908</v>
+        <f t="shared" ca="1" si="90"/>
+        <v>2232518.7745620478</v>
       </c>
       <c r="L139" s="97">
-        <f t="shared" ca="1" si="91"/>
-        <v>2063444.8746656037</v>
+        <f t="shared" ca="1" si="90"/>
+        <v>2375946.7363722259</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -8190,23 +8255,23 @@
         <v>-9038</v>
       </c>
       <c r="H140" s="97">
-        <f t="shared" ref="H140:L140" si="92">G140+H231</f>
+        <f t="shared" ref="H140:L140" si="91">G140+H231</f>
         <v>-9038</v>
       </c>
       <c r="I140" s="97">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>-9038</v>
       </c>
       <c r="J140" s="97">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>-9038</v>
       </c>
       <c r="K140" s="97">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>-9038</v>
       </c>
       <c r="L140" s="97">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>-9038</v>
       </c>
     </row>
@@ -8216,11 +8281,11 @@
         <v>36</v>
       </c>
       <c r="C141" s="106">
-        <f t="shared" ref="C141:D141" si="93">C137+C138+C139+C140</f>
+        <f t="shared" ref="C141:D141" si="92">C137+C138+C139+C140</f>
         <v>2051375</v>
       </c>
       <c r="D141" s="106">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>1936072</v>
       </c>
       <c r="E141" s="106">
@@ -8233,27 +8298,27 @@
       </c>
       <c r="G141" s="106">
         <f ca="1">G137+G138+G139+G140</f>
-        <v>1773429.0582243977</v>
+        <v>1784396.4446506011</v>
       </c>
       <c r="H141" s="106">
-        <f t="shared" ref="H141:L141" ca="1" si="94">H137+H138+H139+H140</f>
-        <v>1739395.654763161</v>
+        <f t="shared" ref="H141:L141" ca="1" si="93">H137+H138+H139+H140</f>
+        <v>1793374.0698415325</v>
       </c>
       <c r="I141" s="106">
-        <f t="shared" ca="1" si="94"/>
-        <v>1806772.6718294378</v>
+        <f t="shared" ca="1" si="93"/>
+        <v>1981851.6280813448</v>
       </c>
       <c r="J141" s="106">
-        <f t="shared" ca="1" si="94"/>
-        <v>1961777.7818514844</v>
+        <f t="shared" ca="1" si="93"/>
+        <v>2228620.4937868407</v>
       </c>
       <c r="K141" s="106">
-        <f t="shared" ca="1" si="94"/>
-        <v>2198737.8414957915</v>
+        <f t="shared" ca="1" si="93"/>
+        <v>2519538.4479943397</v>
       </c>
       <c r="L141" s="106">
-        <f t="shared" ca="1" si="94"/>
-        <v>2370815.9107961897</v>
+        <f t="shared" ca="1" si="93"/>
+        <v>2685633.9112245445</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -8262,11 +8327,11 @@
         <v>38</v>
       </c>
       <c r="C142" s="106">
-        <f t="shared" ref="C142:D142" si="95">C136+C141</f>
+        <f t="shared" ref="C142:D142" si="94">C136+C141</f>
         <v>2980705</v>
       </c>
       <c r="D142" s="106">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>3004596</v>
       </c>
       <c r="E142" s="106">
@@ -8279,27 +8344,27 @@
       </c>
       <c r="G142" s="106">
         <f ca="1">G136+G141</f>
-        <v>3231572.5797677068</v>
+        <v>3242539.9661939098</v>
       </c>
       <c r="H142" s="106">
-        <f t="shared" ref="H142:L142" ca="1" si="96">H136+H141</f>
-        <v>2802883.9914026265</v>
+        <f t="shared" ref="H142:L142" ca="1" si="95">H136+H141</f>
+        <v>2852314.1203552121</v>
       </c>
       <c r="I142" s="106">
-        <f t="shared" ca="1" si="96"/>
-        <v>2929733.3865694301</v>
+        <f t="shared" ca="1" si="95"/>
+        <v>3092770.0547715314</v>
       </c>
       <c r="J142" s="106">
-        <f t="shared" ca="1" si="96"/>
-        <v>2960977.5254398254</v>
+        <f t="shared" ca="1" si="95"/>
+        <v>3226045.18451672</v>
       </c>
       <c r="K142" s="106">
-        <f t="shared" ca="1" si="96"/>
-        <v>3207872.1964440234</v>
+        <f t="shared" ca="1" si="95"/>
+        <v>3539225.5675866697</v>
       </c>
       <c r="L142" s="106">
-        <f t="shared" ca="1" si="96"/>
-        <v>3380524.5076347101</v>
+        <f t="shared" ca="1" si="95"/>
+        <v>3708630.7408943623</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -8308,11 +8373,11 @@
         <v>37</v>
       </c>
       <c r="C143" s="137">
-        <f t="shared" ref="C143:D143" si="97">C104-C142</f>
+        <f t="shared" ref="C143:D143" si="96">C104-C142</f>
         <v>0</v>
       </c>
       <c r="D143" s="137">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="E143" s="137">
@@ -8328,24 +8393,24 @@
         <v>0</v>
       </c>
       <c r="H143" s="137">
-        <f t="shared" ref="H143:L143" ca="1" si="98">H104-H142</f>
-        <v>-64598.270419122186</v>
+        <f t="shared" ref="H143:L143" ca="1" si="97">H104-H142</f>
+        <v>-80064.81194253359</v>
       </c>
       <c r="I143" s="137">
-        <f t="shared" ca="1" si="98"/>
-        <v>-169774.93184679141</v>
+        <f t="shared" ca="1" si="97"/>
+        <v>-225691.12205467327</v>
       </c>
       <c r="J143" s="137">
-        <f t="shared" ca="1" si="98"/>
-        <v>-324967.20903656306</v>
+        <f t="shared" ca="1" si="97"/>
+        <v>-419463.73115327209</v>
       </c>
       <c r="K143" s="137">
-        <f t="shared" ca="1" si="98"/>
-        <v>-543937.17337515438</v>
+        <f t="shared" ca="1" si="97"/>
+        <v>-669341.32865018863</v>
       </c>
       <c r="L143" s="137">
-        <f t="shared" ca="1" si="98"/>
-        <v>-774893.07634266652</v>
+        <f t="shared" ca="1" si="97"/>
+        <v>-908386.41846029367</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -8367,47 +8432,47 @@
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="165"/>
       <c r="B145" s="194" t="str">
-        <f t="shared" ref="B145:L145" si="99">B3</f>
+        <f t="shared" ref="B145:L145" si="98">B3</f>
         <v>(in thousands of USD, except per share data)</v>
       </c>
       <c r="C145" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2017</v>
       </c>
       <c r="D145" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2018</v>
       </c>
       <c r="E145" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2019</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2020</v>
       </c>
       <c r="G145" s="7" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2021E</v>
       </c>
       <c r="H145" s="7" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2022E</v>
       </c>
       <c r="I145" s="7" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2023E</v>
       </c>
       <c r="J145" s="7" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2024E</v>
       </c>
       <c r="K145" s="7" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>2025E</v>
       </c>
       <c r="L145" s="7" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>Terminal</v>
       </c>
     </row>
@@ -8417,44 +8482,44 @@
         <v>10</v>
       </c>
       <c r="C146" s="96">
-        <f t="shared" ref="C146:L146" si="100">C48</f>
+        <f t="shared" ref="C146:L146" si="99">C48</f>
         <v>362334</v>
       </c>
       <c r="D146" s="96">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>350774</v>
       </c>
       <c r="E146" s="96">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>259809</v>
       </c>
       <c r="F146" s="96">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>-225282</v>
       </c>
       <c r="G146" s="96">
-        <f t="shared" ca="1" si="100"/>
-        <v>205614.79315591752</v>
+        <f t="shared" ca="1" si="99"/>
+        <v>216582.17958212062</v>
       </c>
       <c r="H146" s="96">
-        <f t="shared" ca="1" si="100"/>
-        <v>275944.32710902742</v>
+        <f t="shared" ca="1" si="99"/>
+        <v>342012.72748091258</v>
       </c>
       <c r="I146" s="96">
-        <f t="shared" ca="1" si="100"/>
-        <v>374402.47854068404</v>
+        <f t="shared" ca="1" si="99"/>
+        <v>518393.0608428219</v>
       </c>
       <c r="J146" s="96">
-        <f t="shared" ca="1" si="100"/>
-        <v>460371.24936205102</v>
+        <f t="shared" ca="1" si="99"/>
+        <v>574818.15305656288</v>
       </c>
       <c r="K146" s="96">
-        <f t="shared" ca="1" si="100"/>
-        <v>541304.1909513108</v>
+        <f t="shared" ca="1" si="99"/>
+        <v>617709.33359962981</v>
       </c>
       <c r="L146" s="96">
-        <f t="shared" ca="1" si="100"/>
-        <v>475778.33554661321</v>
+        <f t="shared" ca="1" si="99"/>
+        <v>492442.38181017805</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -8486,28 +8551,28 @@
         <v>108452</v>
       </c>
       <c r="G148" s="69">
-        <f t="shared" ref="G148:L148" si="101">G154*G4</f>
+        <f t="shared" ref="G148:L148" si="100">G154*G4</f>
         <v>143203.45123748534</v>
       </c>
       <c r="H148" s="69">
-        <f t="shared" si="101"/>
-        <v>150363.6237993596</v>
+        <f t="shared" si="100"/>
+        <v>151795.65831173447</v>
       </c>
       <c r="I148" s="69">
-        <f t="shared" si="101"/>
-        <v>178408.72804295566</v>
+        <f t="shared" si="100"/>
+        <v>181430.3208640666</v>
       </c>
       <c r="J148" s="69">
-        <f t="shared" si="101"/>
-        <v>194171.47212964614</v>
+        <f t="shared" si="100"/>
+        <v>199158.44780045329</v>
       </c>
       <c r="K148" s="69">
-        <f t="shared" si="101"/>
-        <v>203880.04573612846</v>
+        <f t="shared" si="100"/>
+        <v>211107.9546684805</v>
       </c>
       <c r="L148" s="69">
-        <f t="shared" si="101"/>
-        <v>209996.44710821233</v>
+        <f t="shared" si="100"/>
+        <v>215330.11376185011</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -8630,23 +8695,23 @@
         <v>5.473846147634151E-2</v>
       </c>
       <c r="H154" s="75">
-        <f t="shared" ref="H154:L154" si="102">G154</f>
+        <f t="shared" ref="H154:L154" si="101">G154</f>
         <v>5.473846147634151E-2</v>
       </c>
       <c r="I154" s="75">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>5.473846147634151E-2</v>
       </c>
       <c r="J154" s="75">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>5.473846147634151E-2</v>
       </c>
       <c r="K154" s="75">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>5.473846147634151E-2</v>
       </c>
       <c r="L154" s="75">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>5.473846147634151E-2</v>
       </c>
     </row>
@@ -8664,28 +8729,28 @@
         <v>14656</v>
       </c>
       <c r="G155" s="12">
-        <f t="shared" ref="G155:L155" si="103">G156*G4</f>
+        <f t="shared" ref="G155:L155" si="102">G156*G4</f>
         <v>19352.245982891833</v>
       </c>
       <c r="H155" s="12">
-        <f t="shared" si="103"/>
-        <v>20319.858282036428</v>
+        <f t="shared" si="102"/>
+        <v>20513.380741865345</v>
       </c>
       <c r="I155" s="12">
-        <f t="shared" si="103"/>
-        <v>24109.821102400678</v>
+        <f t="shared" si="102"/>
+        <v>24518.153492639696</v>
       </c>
       <c r="J155" s="12">
-        <f t="shared" si="103"/>
-        <v>26239.968792941523</v>
+        <f t="shared" si="102"/>
+        <v>26913.899337618888</v>
       </c>
       <c r="K155" s="12">
-        <f t="shared" si="103"/>
-        <v>27551.967232588599</v>
+        <f t="shared" si="102"/>
+        <v>28528.733297876021</v>
       </c>
       <c r="L155" s="12">
-        <f t="shared" si="103"/>
-        <v>28378.526249566257</v>
+        <f t="shared" si="102"/>
+        <v>29099.307963833544</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -8708,23 +8773,23 @@
         <v>7.3972530833664773E-3</v>
       </c>
       <c r="H156" s="123">
-        <f t="shared" ref="H156:L156" si="104">G156</f>
+        <f t="shared" ref="H156:L156" si="103">G156</f>
         <v>7.3972530833664773E-3</v>
       </c>
       <c r="I156" s="123">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>7.3972530833664773E-3</v>
       </c>
       <c r="J156" s="123">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>7.3972530833664773E-3</v>
       </c>
       <c r="K156" s="123">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>7.3972530833664773E-3</v>
       </c>
       <c r="L156" s="123">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>7.3972530833664773E-3</v>
       </c>
     </row>
@@ -8753,11 +8818,11 @@
         <v>130</v>
       </c>
       <c r="C158" s="51">
-        <f t="shared" ref="C158:D158" si="105">C159+C161+C162+C164+C166</f>
+        <f t="shared" ref="C158:D158" si="104">C159+C161+C162+C164+C166</f>
         <v>25526</v>
       </c>
       <c r="D158" s="51">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>27339</v>
       </c>
       <c r="E158" s="51">
@@ -8773,24 +8838,24 @@
         <v>26720.425719082046</v>
       </c>
       <c r="H158" s="51">
-        <f t="shared" ref="H158:L158" si="106">H159+H161+H162+H164+H166</f>
-        <v>28021.447005036149</v>
+        <f t="shared" ref="H158:L158" si="105">H159+H161+H162+H164+H166</f>
+        <v>28281.651262226969</v>
       </c>
       <c r="I158" s="51">
-        <f t="shared" si="106"/>
-        <v>33117.312680397634</v>
+        <f t="shared" si="105"/>
+        <v>33666.343663070264</v>
       </c>
       <c r="J158" s="51">
-        <f t="shared" si="106"/>
-        <v>35981.442756120741</v>
+        <f t="shared" si="105"/>
+        <v>36887.588724557703</v>
       </c>
       <c r="K158" s="51">
-        <f t="shared" si="106"/>
-        <v>37745.514893926782</v>
+        <f t="shared" si="105"/>
+        <v>39058.844048031169</v>
       </c>
       <c r="L158" s="51">
-        <f t="shared" si="106"/>
-        <v>38856.880340744581</v>
+        <f t="shared" si="105"/>
+        <v>39826.020928991791</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -8811,28 +8876,28 @@
         <v>10670</v>
       </c>
       <c r="G159" s="51">
-        <f t="shared" ref="G159:L159" si="107">G160*G4</f>
+        <f t="shared" ref="G159:L159" si="106">G160*G4</f>
         <v>14089.005502009815</v>
       </c>
       <c r="H159" s="51">
-        <f t="shared" si="107"/>
-        <v>14793.455777110306</v>
+        <f t="shared" si="106"/>
+        <v>14934.345832130404</v>
       </c>
       <c r="I159" s="51">
-        <f t="shared" si="107"/>
-        <v>17552.660423213372</v>
+        <f t="shared" si="106"/>
+        <v>17849.938439305781</v>
       </c>
       <c r="J159" s="51">
-        <f t="shared" si="107"/>
-        <v>19103.470730123227</v>
+        <f t="shared" si="106"/>
+        <v>19594.112031413311</v>
       </c>
       <c r="K159" s="51">
-        <f t="shared" si="107"/>
-        <v>20058.644266629388</v>
+        <f t="shared" si="106"/>
+        <v>20769.758753298112</v>
       </c>
       <c r="L159" s="51">
-        <f t="shared" si="107"/>
-        <v>20660.403594628271</v>
+        <f t="shared" si="106"/>
+        <v>21185.153928364074</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -8861,23 +8926,23 @@
         <v>5.3854182859934705E-3</v>
       </c>
       <c r="H160" s="65">
-        <f t="shared" ref="H160:L160" si="108">G160</f>
+        <f t="shared" ref="H160:L160" si="107">G160</f>
         <v>5.3854182859934705E-3</v>
       </c>
       <c r="I160" s="65">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>5.3854182859934705E-3</v>
       </c>
       <c r="J160" s="65">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>5.3854182859934705E-3</v>
       </c>
       <c r="K160" s="65">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>5.3854182859934705E-3</v>
       </c>
       <c r="L160" s="65">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>5.3854182859934705E-3</v>
       </c>
     </row>
@@ -8903,23 +8968,23 @@
         <v>700</v>
       </c>
       <c r="H161" s="79">
-        <f t="shared" ref="H161:L161" si="109">G161</f>
+        <f t="shared" ref="H161:L161" si="108">G161</f>
         <v>700</v>
       </c>
       <c r="I161" s="79">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>700</v>
       </c>
       <c r="J161" s="79">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>700</v>
       </c>
       <c r="K161" s="79">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>700</v>
       </c>
       <c r="L161" s="79">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>700</v>
       </c>
     </row>
@@ -8941,28 +9006,28 @@
         <v>2932</v>
       </c>
       <c r="G162" s="51">
-        <f t="shared" ref="G162:L162" si="110">G163*G4</f>
+        <f t="shared" ref="G162:L162" si="109">G163*G4</f>
         <v>3871.5055418831093</v>
       </c>
       <c r="H162" s="51">
-        <f t="shared" si="110"/>
-        <v>4065.0808189772652</v>
+        <f t="shared" si="109"/>
+        <v>4103.7958743960962</v>
       </c>
       <c r="I162" s="51">
-        <f t="shared" si="110"/>
-        <v>4823.2802587499164</v>
+        <f t="shared" si="109"/>
+        <v>4904.9690256836502</v>
       </c>
       <c r="J162" s="51">
-        <f t="shared" si="110"/>
-        <v>5249.4260712953419</v>
+        <f t="shared" si="109"/>
+        <v>5384.2489668325989</v>
       </c>
       <c r="K162" s="51">
-        <f t="shared" si="110"/>
-        <v>5511.8973748601093</v>
+        <f t="shared" si="109"/>
+        <v>5707.3039048425553</v>
       </c>
       <c r="L162" s="51">
-        <f t="shared" si="110"/>
-        <v>5677.2542961059135</v>
+        <f t="shared" si="109"/>
+        <v>5821.4499829394063</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -8985,23 +9050,23 @@
         <v>1.4798543968634354E-3</v>
       </c>
       <c r="H163" s="65">
-        <f t="shared" ref="H163:L163" si="111">G163</f>
+        <f t="shared" ref="H163:L163" si="110">G163</f>
         <v>1.4798543968634354E-3</v>
       </c>
       <c r="I163" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>1.4798543968634354E-3</v>
       </c>
       <c r="J163" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>1.4798543968634354E-3</v>
       </c>
       <c r="K163" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>1.4798543968634354E-3</v>
       </c>
       <c r="L163" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>1.4798543968634354E-3</v>
       </c>
     </row>
@@ -9023,28 +9088,28 @@
         <v>6104</v>
       </c>
       <c r="G164" s="51">
-        <f t="shared" ref="G164:L164" si="112">G165*G4</f>
+        <f t="shared" ref="G164:L164" si="111">G165*G4</f>
         <v>8059.9146751891203</v>
       </c>
       <c r="H164" s="51">
-        <f t="shared" si="112"/>
-        <v>8462.9104089485772</v>
+        <f t="shared" si="111"/>
+        <v>8543.5095557004679</v>
       </c>
       <c r="I164" s="51">
-        <f t="shared" si="112"/>
-        <v>10041.371998434342</v>
+        <f t="shared" si="111"/>
+        <v>10211.436198080833</v>
       </c>
       <c r="J164" s="51">
-        <f t="shared" si="112"/>
-        <v>10928.545954702173</v>
+        <f t="shared" si="111"/>
+        <v>11209.227726311796</v>
       </c>
       <c r="K164" s="51">
-        <f t="shared" si="112"/>
-        <v>11474.973252437281</v>
+        <f t="shared" si="111"/>
+        <v>11881.781389890504</v>
       </c>
       <c r="L164" s="51">
-        <f t="shared" si="112"/>
-        <v>11819.2224500104</v>
+        <f t="shared" si="111"/>
+        <v>12119.417017688314</v>
       </c>
       <c r="N164" s="96"/>
     </row>
@@ -9074,23 +9139,23 @@
         <v>3.0808428507688983E-3</v>
       </c>
       <c r="H165" s="65">
-        <f t="shared" ref="H165:L165" si="113">G165</f>
+        <f t="shared" ref="H165:L165" si="112">G165</f>
         <v>3.0808428507688983E-3</v>
       </c>
       <c r="I165" s="65">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>3.0808428507688983E-3</v>
       </c>
       <c r="J165" s="65">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>3.0808428507688983E-3</v>
       </c>
       <c r="K165" s="65">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>3.0808428507688983E-3</v>
       </c>
       <c r="L165" s="65">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>3.0808428507688983E-3</v>
       </c>
     </row>
@@ -9144,27 +9209,27 @@
         <v>23933</v>
       </c>
       <c r="G167" s="96">
-        <f t="shared" ref="G167:L167" si="114">G26</f>
+        <f t="shared" ref="G167:L167" si="113">G26</f>
         <v>0</v>
       </c>
       <c r="H167" s="96">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="I167" s="96">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="J167" s="96">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="K167" s="96">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="L167" s="96">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
     </row>
@@ -9186,23 +9251,23 @@
         <v>0</v>
       </c>
       <c r="H168" s="79">
-        <f t="shared" ref="H168:L168" si="115">H169+H170+H171+H172+H173+H174</f>
+        <f t="shared" ref="H168:L168" si="114">H169+H170+H171+H172+H173+H174</f>
         <v>0</v>
       </c>
       <c r="I168" s="79">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="J168" s="79">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="K168" s="79">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="L168" s="79">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -9435,28 +9500,28 @@
         <v>2090</v>
       </c>
       <c r="G176" s="92">
-        <f t="shared" ref="G176:L176" si="116">G177*G4</f>
+        <f t="shared" ref="G176:L176" si="115">G177*G4</f>
         <v>8917.2650684803939</v>
       </c>
       <c r="H176" s="92">
-        <f t="shared" si="116"/>
-        <v>15828.569429735675</v>
+        <f t="shared" si="115"/>
+        <v>15979.317710018871</v>
       </c>
       <c r="I176" s="92">
-        <f t="shared" si="116"/>
-        <v>18780.83852559279</v>
+        <f t="shared" si="115"/>
+        <v>19098.917396990335</v>
       </c>
       <c r="J176" s="92">
-        <f t="shared" si="116"/>
-        <v>20440.160659995872</v>
+        <f t="shared" si="115"/>
+        <v>20965.132648933199</v>
       </c>
       <c r="K176" s="92">
-        <f t="shared" si="116"/>
-        <v>21462.168692995667</v>
+        <f t="shared" si="115"/>
+        <v>22223.040607869192</v>
       </c>
       <c r="L176" s="92">
-        <f t="shared" si="116"/>
-        <v>22106.033753785538</v>
+        <f t="shared" si="115"/>
+        <v>22667.501420026576</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -9489,19 +9554,19 @@
         <v>5.7622416649875472E-3</v>
       </c>
       <c r="I177" s="142">
-        <f t="shared" ref="I177:L177" si="117">H177</f>
+        <f t="shared" ref="I177:L177" si="116">H177</f>
         <v>5.7622416649875472E-3</v>
       </c>
       <c r="J177" s="142">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>5.7622416649875472E-3</v>
       </c>
       <c r="K177" s="142">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>5.7622416649875472E-3</v>
       </c>
       <c r="L177" s="142">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>5.7622416649875472E-3</v>
       </c>
     </row>
@@ -9527,23 +9592,23 @@
         <v>0</v>
       </c>
       <c r="H178" s="96">
-        <f t="shared" ref="H178:L178" si="118">-(H101-G101)</f>
+        <f t="shared" ref="H178:L178" si="117">-(H101-G101)</f>
         <v>0</v>
       </c>
       <c r="I178" s="96">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="J178" s="96">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="K178" s="96">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="L178" s="96">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -9607,24 +9672,24 @@
         <v>-1923.8715120962452</v>
       </c>
       <c r="H181" s="96">
-        <f t="shared" ref="H181:L181" si="119">-(H102-G102)</f>
-        <v>-396.39357560481312</v>
+        <f t="shared" ref="H181:L181" si="118">-(H102-G102)</f>
+        <v>-475.67229072577447</v>
       </c>
       <c r="I181" s="96">
-        <f t="shared" si="119"/>
-        <v>-1552.6021270105721</v>
+        <f t="shared" si="118"/>
+        <v>-1640.6015007948427</v>
       </c>
       <c r="J181" s="96">
-        <f t="shared" si="119"/>
-        <v>-872.63965161075612</v>
+        <f t="shared" si="118"/>
+        <v>-981.4450090921855</v>
       </c>
       <c r="K181" s="96">
-        <f t="shared" si="119"/>
-        <v>-537.4753433161186</v>
+        <f t="shared" si="118"/>
+        <v>-661.53541876254167</v>
       </c>
       <c r="L181" s="96">
-        <f t="shared" si="119"/>
-        <v>-338.60946628915735</v>
+        <f t="shared" si="118"/>
+        <v>-233.74251462943357</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -9649,24 +9714,24 @@
         <v>7844.7181333331755</v>
       </c>
       <c r="H182" s="96">
-        <f t="shared" ref="H182:L182" si="120">(H118-G118)</f>
-        <v>1840.4377181902164</v>
+        <f t="shared" ref="H182:L182" si="119">(H118-G118)</f>
+        <v>2152.3896909971372</v>
       </c>
       <c r="I182" s="96">
-        <f t="shared" si="120"/>
-        <v>6396.270955736938</v>
+        <f t="shared" si="119"/>
+        <v>6742.5376455526202</v>
       </c>
       <c r="J182" s="96">
-        <f t="shared" si="120"/>
-        <v>3727.1387004396311</v>
+        <f t="shared" si="119"/>
+        <v>4155.2743717418853</v>
       </c>
       <c r="K182" s="96">
-        <f t="shared" si="120"/>
-        <v>2414.889089917182</v>
+        <f t="shared" si="119"/>
+        <v>2903.0501962499256</v>
       </c>
       <c r="L182" s="96">
-        <f t="shared" si="120"/>
-        <v>1639.1045990810308</v>
+        <f t="shared" si="119"/>
+        <v>1226.4660692740654</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -9704,27 +9769,27 @@
       </c>
       <c r="G184" s="96">
         <f>-(G67-F67)</f>
-        <v>-97927.333870195318</v>
+        <v>-48596.451928841125</v>
       </c>
       <c r="H184" s="96">
-        <f t="shared" ref="H184:L184" si="121">-(H67-G67)</f>
-        <v>-27400.792395882949</v>
+        <f t="shared" ref="H184:L184" si="120">-(H67-G67)</f>
+        <v>-28818.403482451395</v>
       </c>
       <c r="I184" s="96">
-        <f t="shared" si="121"/>
-        <v>-75201.306903357501</v>
+        <f t="shared" si="120"/>
+        <v>-66340.427232632763</v>
       </c>
       <c r="J184" s="96">
-        <f t="shared" si="121"/>
-        <v>-34266.616701934487</v>
+        <f t="shared" si="120"/>
+        <v>-32561.091222234652</v>
       </c>
       <c r="K184" s="96">
-        <f t="shared" si="121"/>
-        <v>-21188.357828853594</v>
+        <f t="shared" si="120"/>
+        <v>-22051.43456879619</v>
       </c>
       <c r="L184" s="96">
-        <f t="shared" si="121"/>
-        <v>-13360.844347175967</v>
+        <f t="shared" si="120"/>
+        <v>-7528.6397918315488</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -9749,23 +9814,23 @@
         <v>4632</v>
       </c>
       <c r="H185" s="96">
-        <f t="shared" ref="H185:L185" si="122">-(H76-G76)+(H109-G109)</f>
+        <f t="shared" ref="H185:L185" si="121">-(H76-G76)+(H109-G109)</f>
         <v>0</v>
       </c>
       <c r="I185" s="96">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="J185" s="96">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="K185" s="96">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="L185" s="96">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
     </row>
@@ -9788,27 +9853,27 @@
       </c>
       <c r="G186" s="96">
         <f>-(G77-F77)</f>
-        <v>-447221.20102247247</v>
+        <v>-214178.09672446293</v>
       </c>
       <c r="H186" s="96">
-        <f t="shared" ref="H186:L186" si="123">-(H77-G77)</f>
-        <v>-40392.281410518335</v>
+        <f t="shared" ref="H186:L186" si="122">-(H77-G77)</f>
+        <v>-19364.699539502384</v>
       </c>
       <c r="I186" s="96">
-        <f t="shared" si="123"/>
-        <v>-204934.562135563</v>
+        <f t="shared" si="122"/>
+        <v>-143296.65113603487</v>
       </c>
       <c r="J186" s="96">
-        <f t="shared" si="123"/>
-        <v>-101787.43083042116</v>
+        <f t="shared" si="122"/>
+        <v>-107956.55351066636</v>
       </c>
       <c r="K186" s="96">
-        <f t="shared" si="123"/>
-        <v>-51210.44384674984</v>
+        <f t="shared" si="122"/>
+        <v>-72767.280054640258</v>
       </c>
       <c r="L186" s="96">
-        <f t="shared" si="123"/>
-        <v>-21553.029756476404</v>
+        <f t="shared" si="122"/>
+        <v>-25711.105619305978</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -9833,24 +9898,24 @@
         <v>45265.204763243484</v>
       </c>
       <c r="H187" s="96">
-        <f t="shared" ref="H187:L187" si="124">-(H82-G82)</f>
-        <v>-3241.9897618378309</v>
+        <f t="shared" ref="H187:L187" si="123">-(H82-G82)</f>
+        <v>-3890.3877142053971</v>
       </c>
       <c r="I187" s="96">
-        <f t="shared" si="124"/>
-        <v>-12698.289048443403</v>
+        <f t="shared" si="123"/>
+        <v>-13418.010775571398</v>
       </c>
       <c r="J187" s="96">
-        <f t="shared" si="124"/>
-        <v>-7137.0703018564527</v>
+        <f t="shared" si="123"/>
+        <v>-8026.9582230965607</v>
       </c>
       <c r="K187" s="96">
-        <f t="shared" si="124"/>
-        <v>-4395.8572174447181</v>
+        <f t="shared" si="123"/>
+        <v>-5410.5091169778025</v>
       </c>
       <c r="L187" s="96">
-        <f t="shared" si="124"/>
-        <v>-2769.390046990171</v>
+        <f t="shared" si="123"/>
+        <v>-1911.7132213321602</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -9875,24 +9940,24 @@
         <v>8038.9286385828746</v>
       </c>
       <c r="H188" s="96">
-        <f t="shared" ref="H188:L188" si="125">(H105-G105)</f>
-        <v>12090.084085537121</v>
+        <f t="shared" ref="H188:L188" si="124">(H105-G105)</f>
+        <v>7229.8459869445651</v>
       </c>
       <c r="I188" s="96">
-        <f t="shared" si="125"/>
-        <v>61340.335374235234</v>
+        <f t="shared" si="124"/>
+        <v>53500.066760399262</v>
       </c>
       <c r="J188" s="96">
-        <f t="shared" si="125"/>
-        <v>30466.677162486885</v>
+        <f t="shared" si="124"/>
+        <v>40305.776682528958</v>
       </c>
       <c r="K188" s="96">
-        <f t="shared" si="125"/>
-        <v>15328.140687880397</v>
+        <f t="shared" si="124"/>
+        <v>27167.797084107413</v>
       </c>
       <c r="L188" s="96">
-        <f t="shared" si="125"/>
-        <v>6451.1815860450151</v>
+        <f t="shared" si="124"/>
+        <v>9599.2883030512603</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -9901,11 +9966,11 @@
         <v>43</v>
       </c>
       <c r="C189" s="106">
-        <f t="shared" ref="C189:D189" si="126">C146+C148+C155+C157+C158+C167+C168+C175+C176+C178+C179+C180+C181+C182+C184+C185+C186+C187+C188</f>
+        <f t="shared" ref="C189:D189" si="125">C146+C148+C155+C157+C158+C167+C168+C175+C176+C178+C179+C180+C181+C182+C184+C185+C186+C187+C188</f>
         <v>563292</v>
       </c>
       <c r="D189" s="106">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>538544</v>
       </c>
       <c r="E189" s="106">
@@ -9918,27 +9983,27 @@
       </c>
       <c r="G189" s="106">
         <f ca="1">G146+G148+G155+G157+G158+G167+G168+G175+G176+G178+G179+G180+G181+G182+G184+G185+G186+G187+G188</f>
-        <v>-77483.373705747377</v>
+        <v>215857.9989598195</v>
       </c>
       <c r="H189" s="106">
-        <f t="shared" ref="H189:L189" ca="1" si="127">H146+H148+H155+H157+H158+H167+H168+H175+H176+H178+H179+H180+H181+H182+H184+H185+H186+H187+H188</f>
-        <v>432976.89028507867</v>
+        <f t="shared" ref="H189:L189" ca="1" si="126">H146+H148+H155+H157+H158+H167+H168+H175+H176+H178+H179+H180+H181+H182+H184+H185+H186+H187+H188</f>
+        <v>515415.80815781496</v>
       </c>
       <c r="I189" s="106">
-        <f t="shared" ca="1" si="127"/>
-        <v>402169.02500762854</v>
+        <f t="shared" ca="1" si="126"/>
+        <v>612653.71002050687</v>
       </c>
       <c r="J189" s="106">
-        <f t="shared" ca="1" si="127"/>
-        <v>627334.35207785876</v>
+        <f t="shared" ca="1" si="126"/>
+        <v>753678.22465730691</v>
       </c>
       <c r="K189" s="106">
-        <f t="shared" ca="1" si="127"/>
-        <v>772354.78304838366</v>
+        <f t="shared" ca="1" si="126"/>
+        <v>847807.99434306705</v>
       </c>
       <c r="L189" s="106">
-        <f t="shared" ca="1" si="127"/>
-        <v>745184.63556711632</v>
+        <f t="shared" ca="1" si="126"/>
+        <v>774805.8791101065</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -9963,24 +10028,24 @@
         <v>-96020.755680362825</v>
       </c>
       <c r="H190" s="69">
-        <f t="shared" ref="H190:L190" si="128">H197*H206</f>
-        <v>-88219.069281333359</v>
+        <f t="shared" ref="H190:L190" si="127">H197*H206</f>
+        <v>-89059.250893536533</v>
       </c>
       <c r="I190" s="69">
-        <f t="shared" si="128"/>
-        <v>-104673.26832065282</v>
+        <f t="shared" si="127"/>
+        <v>-106446.05152240153</v>
       </c>
       <c r="J190" s="69">
-        <f t="shared" si="128"/>
-        <v>-113921.3469284364</v>
+        <f t="shared" si="127"/>
+        <v>-116847.22980549655</v>
       </c>
       <c r="K190" s="69">
-        <f t="shared" si="128"/>
-        <v>-119617.41427485821</v>
+        <f t="shared" si="127"/>
+        <v>-123858.06359382634</v>
       </c>
       <c r="L190" s="69">
-        <f t="shared" si="128"/>
-        <v>-123205.93670310399</v>
+        <f t="shared" si="127"/>
+        <v>-126335.22486570285</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -10111,7 +10176,7 @@
         <v>0.91758061525735557</v>
       </c>
       <c r="F197" s="73">
-        <f t="shared" ref="F197" si="129">F190/F206</f>
+        <f t="shared" ref="F197" si="128">F190/F206</f>
         <v>0.86852931093589303</v>
       </c>
       <c r="G197" s="75">
@@ -10123,19 +10188,19 @@
         <v>0.91758061525735557</v>
       </c>
       <c r="I197" s="75">
-        <f t="shared" ref="I197:L197" si="130">H197</f>
+        <f t="shared" ref="I197:L197" si="129">H197</f>
         <v>0.91758061525735557</v>
       </c>
       <c r="J197" s="75">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>0.91758061525735557</v>
       </c>
       <c r="K197" s="75">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>0.91758061525735557</v>
       </c>
       <c r="L197" s="75">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>0.91758061525735557</v>
       </c>
     </row>
@@ -10161,24 +10226,24 @@
         <v>-4185.8231999999998</v>
       </c>
       <c r="H198" s="15">
-        <f t="shared" ref="H198:L198" si="131">-H207*H206</f>
-        <v>-3365.0094318750012</v>
+        <f t="shared" ref="H198:L198" si="130">-H207*H206</f>
+        <v>-3397.0571407500011</v>
       </c>
       <c r="I198" s="15">
-        <f t="shared" si="131"/>
-        <v>-3992.634903468751</v>
+        <f t="shared" si="130"/>
+        <v>-4060.255569195001</v>
       </c>
       <c r="J198" s="15">
-        <f t="shared" si="131"/>
-        <v>-4345.3916486421886</v>
+        <f t="shared" si="130"/>
+        <v>-4456.9959033467012</v>
       </c>
       <c r="K198" s="15">
-        <f t="shared" si="131"/>
-        <v>-4562.6612310742976</v>
+        <f t="shared" si="130"/>
+        <v>-4724.4156575475035</v>
       </c>
       <c r="L198" s="15">
-        <f t="shared" si="131"/>
-        <v>-4699.5410680065279</v>
+        <f t="shared" si="130"/>
+        <v>-4818.9039706984531</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -10317,23 +10382,23 @@
         <v>8.241938474264443E-2</v>
       </c>
       <c r="H205" s="65">
-        <f t="shared" ref="H205:L205" si="132">(1-H197)</f>
+        <f t="shared" ref="H205:L205" si="131">(1-H197)</f>
         <v>8.241938474264443E-2</v>
       </c>
       <c r="I205" s="65">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>8.241938474264443E-2</v>
       </c>
       <c r="J205" s="65">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>8.241938474264443E-2</v>
       </c>
       <c r="K205" s="65">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>8.241938474264443E-2</v>
       </c>
       <c r="L205" s="65">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>8.241938474264443E-2</v>
       </c>
     </row>
@@ -10343,11 +10408,11 @@
         <v>131</v>
       </c>
       <c r="C206" s="10">
-        <f t="shared" ref="C206:D206" si="133">C198+C190</f>
+        <f t="shared" ref="C206:D206" si="132">C198+C190</f>
         <v>-94796</v>
       </c>
       <c r="D206" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>-125220</v>
       </c>
       <c r="E206" s="10">
@@ -10359,28 +10424,28 @@
         <v>-58340</v>
       </c>
       <c r="G206" s="10">
-        <f t="shared" ref="G206:L206" si="134">G207*G4</f>
+        <f t="shared" ref="G206:L206" si="133">G207*G4</f>
         <v>-104645.58</v>
       </c>
       <c r="H206" s="10">
-        <f t="shared" si="134"/>
-        <v>-96143.126625000019</v>
+        <f t="shared" si="133"/>
+        <v>-97058.775450000016</v>
       </c>
       <c r="I206" s="10">
-        <f t="shared" si="134"/>
-        <v>-114075.28295625001</v>
+        <f t="shared" si="133"/>
+        <v>-116007.30197700002</v>
       </c>
       <c r="J206" s="10">
-        <f t="shared" si="134"/>
-        <v>-124154.04710406253</v>
+        <f t="shared" si="133"/>
+        <v>-127342.74009562003</v>
       </c>
       <c r="K206" s="10">
-        <f t="shared" si="134"/>
-        <v>-130361.74945926564</v>
+        <f t="shared" si="133"/>
+        <v>-134983.30450135723</v>
       </c>
       <c r="L206" s="10">
-        <f t="shared" si="134"/>
-        <v>-134272.60194304364</v>
+        <f t="shared" si="133"/>
+        <v>-137682.97059138436</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -10476,11 +10541,11 @@
         <v>48</v>
       </c>
       <c r="C210" s="106">
-        <f t="shared" ref="C210:D210" si="135">C190+C198+C208+C209</f>
+        <f t="shared" ref="C210:D210" si="134">C190+C198+C208+C209</f>
         <v>-210030</v>
       </c>
       <c r="D210" s="106">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-110874</v>
       </c>
       <c r="E210" s="106">
@@ -10496,24 +10561,24 @@
         <v>-100206.57888036282</v>
       </c>
       <c r="H210" s="106">
-        <f t="shared" ref="H210:L210" si="136">H190+H198+H208+H209</f>
-        <v>-91584.078713208364</v>
+        <f t="shared" ref="H210:L210" si="135">H190+H198+H208+H209</f>
+        <v>-92456.308034286529</v>
       </c>
       <c r="I210" s="106">
-        <f t="shared" si="136"/>
-        <v>-108665.90322412156</v>
+        <f t="shared" si="135"/>
+        <v>-110506.30709159652</v>
       </c>
       <c r="J210" s="106">
-        <f t="shared" si="136"/>
-        <v>-118266.73857707859</v>
+        <f t="shared" si="135"/>
+        <v>-121304.22570884325</v>
       </c>
       <c r="K210" s="106">
-        <f t="shared" si="136"/>
-        <v>-124180.0755059325</v>
+        <f t="shared" si="135"/>
+        <v>-128582.47925137385</v>
       </c>
       <c r="L210" s="106">
-        <f t="shared" si="136"/>
-        <v>-127905.47777111051</v>
+        <f t="shared" si="135"/>
+        <v>-131154.1288364013</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
@@ -10679,28 +10744,28 @@
         <v>-30553</v>
       </c>
       <c r="G215" s="21">
-        <f t="shared" ref="G215" si="137">-(G216+G217)</f>
+        <f t="shared" ref="G215" si="136">-(G216+G217)</f>
         <v>0</v>
       </c>
       <c r="H215" s="21">
         <f ca="1">-H218*H48</f>
-        <v>-64598.270419121371</v>
+        <v>-80064.81194253359</v>
       </c>
       <c r="I215" s="21">
-        <f t="shared" ref="I215:L215" ca="1" si="138">-I218*I48</f>
-        <v>-105176.66142767026</v>
+        <f t="shared" ref="I215:L215" ca="1" si="137">-I218*I48</f>
+        <v>-145626.31011213906</v>
       </c>
       <c r="J215" s="21">
-        <f t="shared" ca="1" si="138"/>
-        <v>-155192.27718977121</v>
+        <f t="shared" ca="1" si="137"/>
+        <v>-193772.60909859918</v>
       </c>
       <c r="K215" s="21">
-        <f t="shared" ca="1" si="138"/>
-        <v>-218969.9643385908</v>
+        <f t="shared" ca="1" si="137"/>
+        <v>-249877.59749691639</v>
       </c>
       <c r="L215" s="21">
-        <f t="shared" ca="1" si="138"/>
-        <v>-230955.90296751319</v>
+        <f t="shared" ca="1" si="137"/>
+        <v>-239045.08981010527</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
@@ -10780,11 +10845,11 @@
         <v>0.33710245243339015</v>
       </c>
       <c r="K218" s="39">
-        <f t="shared" ref="K218:L218" si="139">J218*(1.2)</f>
+        <f t="shared" ref="K218:L218" si="138">J218*(1.2)</f>
         <v>0.40452294292006818</v>
       </c>
       <c r="L218" s="39">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>0.4854275315040818</v>
       </c>
     </row>
@@ -10829,24 +10894,24 @@
         <v>0</v>
       </c>
       <c r="H220" s="18">
-        <f t="shared" ref="H220:L220" si="140">H222</f>
-        <v>-325806.3</v>
+        <f t="shared" ref="H220:L220" si="139">H222</f>
+        <v>-349014.42</v>
       </c>
       <c r="I220" s="18">
-        <f t="shared" si="140"/>
-        <v>-325806.3</v>
+        <f t="shared" si="139"/>
+        <v>-349014.42</v>
       </c>
       <c r="J220" s="18">
-        <f t="shared" si="140"/>
-        <v>-325806.3</v>
+        <f t="shared" si="139"/>
+        <v>-349014.42</v>
       </c>
       <c r="K220" s="18">
-        <f t="shared" si="140"/>
-        <v>-325806.3</v>
+        <f t="shared" si="139"/>
+        <v>-349014.42</v>
       </c>
       <c r="L220" s="18">
-        <f t="shared" si="140"/>
-        <v>-325806.3</v>
+        <f t="shared" si="139"/>
+        <v>-349014.42</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
@@ -10900,23 +10965,23 @@
       </c>
       <c r="H222" s="18">
         <f>-CHOOSE($U$4,growth!F30,growth!F31)</f>
-        <v>-325806.3</v>
+        <v>-349014.42</v>
       </c>
       <c r="I222" s="18">
         <f>-CHOOSE($U$4,growth!G30,growth!G31)</f>
-        <v>-325806.3</v>
+        <v>-349014.42</v>
       </c>
       <c r="J222" s="18">
         <f>-CHOOSE($U$4,growth!H30,growth!H31)</f>
-        <v>-325806.3</v>
+        <v>-349014.42</v>
       </c>
       <c r="K222" s="18">
         <f>-CHOOSE($U$4,growth!I30,growth!I31)</f>
-        <v>-325806.3</v>
+        <v>-349014.42</v>
       </c>
       <c r="L222" s="18">
         <f>-CHOOSE($U$4,growth!J30,growth!J31)</f>
-        <v>-325806.3</v>
+        <v>-349014.42</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
@@ -10925,44 +10990,44 @@
         <v>101</v>
       </c>
       <c r="C223" s="91">
-        <f t="shared" ref="C223:L223" si="141">C220/C4</f>
+        <f t="shared" ref="C223:L223" si="140">C220/C4</f>
         <v>-0.11946127985296</v>
       </c>
       <c r="D223" s="91">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>-0.12636093743822124</v>
       </c>
       <c r="E223" s="91">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>-9.1091366163332216E-2</v>
       </c>
       <c r="F223" s="209">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>-1.1717701117865456E-2</v>
       </c>
       <c r="G223" s="209">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="H223" s="209">
-        <f t="shared" si="141"/>
-        <v>-0.11860671584436314</v>
+        <f t="shared" si="140"/>
+        <v>-0.12585677743578</v>
       </c>
       <c r="I223" s="209">
-        <f t="shared" si="141"/>
-        <v>-9.996223725671885E-2</v>
+        <f t="shared" si="140"/>
+        <v>-0.10529944660226548</v>
       </c>
       <c r="J223" s="209">
-        <f t="shared" si="141"/>
-        <v>-9.1847352269089813E-2</v>
+        <f t="shared" si="140"/>
+        <v>-9.5926196427275998E-2</v>
       </c>
       <c r="K223" s="209">
-        <f t="shared" si="141"/>
-        <v>-8.747366882770459E-2</v>
+        <f t="shared" si="140"/>
+        <v>-9.0496411723845274E-2</v>
       </c>
       <c r="L223" s="209">
-        <f t="shared" si="141"/>
-        <v>-8.4925892065732603E-2</v>
+        <f t="shared" si="140"/>
+        <v>-8.8721972278279673E-2</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
@@ -10987,23 +11052,23 @@
         <v>0</v>
       </c>
       <c r="H224" s="154">
-        <f t="shared" ref="H224:L224" si="142">H225+H226</f>
+        <f t="shared" ref="H224:L224" si="141">H225+H226</f>
         <v>0</v>
       </c>
       <c r="I224" s="154">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="J224" s="154">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="K224" s="154">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
       <c r="L224" s="154">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>0</v>
       </c>
     </row>
@@ -11069,23 +11134,23 @@
         <v>0</v>
       </c>
       <c r="H227" s="137">
-        <f t="shared" ref="H227:L227" si="143">H228+H229</f>
+        <f t="shared" ref="H227:L227" si="142">H228+H229</f>
         <v>0</v>
       </c>
       <c r="I227" s="137">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="J227" s="137">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="K227" s="137">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
       <c r="L227" s="137">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -11125,11 +11190,11 @@
         <v>57</v>
       </c>
       <c r="C230" s="106">
-        <f t="shared" ref="C230:D230" si="144">C211+C212+C214+C215+C219+C220+C224+C227</f>
+        <f t="shared" ref="C230:D230" si="143">C211+C212+C214+C215+C219+C220+C224+C227</f>
         <v>-416338</v>
       </c>
       <c r="D230" s="106">
-        <f t="shared" si="144"/>
+        <f t="shared" si="143"/>
         <v>-433223</v>
       </c>
       <c r="E230" s="106">
@@ -11145,24 +11210,24 @@
         <v>-19791.125228607183</v>
       </c>
       <c r="H230" s="106">
-        <f t="shared" ref="H230:L230" ca="1" si="145">H211+H212+H213+H214+H215+H219+H220+H224+H227</f>
-        <v>-798990.277126692</v>
+        <f t="shared" ref="H230:L230" ca="1" si="144">H211+H212+H213+H214+H215+H219+H220+H224+H227</f>
+        <v>-837664.93865010422</v>
       </c>
       <c r="I230" s="106">
-        <f t="shared" ca="1" si="145"/>
-        <v>-439247.18965711549</v>
+        <f t="shared" ca="1" si="144"/>
+        <v>-502904.95834158431</v>
       </c>
       <c r="J230" s="106">
-        <f t="shared" ca="1" si="145"/>
-        <v>-638953.36420434946</v>
+        <f t="shared" ca="1" si="144"/>
+        <v>-700741.81611317734</v>
       </c>
       <c r="K230" s="106">
-        <f t="shared" ca="1" si="145"/>
-        <v>-552584.68275649729</v>
+        <f t="shared" ca="1" si="144"/>
+        <v>-606700.43591482285</v>
       </c>
       <c r="L230" s="106">
-        <f t="shared" ca="1" si="145"/>
-        <v>-564278.24726235052</v>
+        <f t="shared" ca="1" si="144"/>
+        <v>-595575.5541049426</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -11189,11 +11254,11 @@
         <v>59</v>
       </c>
       <c r="C232" s="149">
-        <f t="shared" ref="C232:D232" si="146">C189+C210+C230+C231</f>
+        <f t="shared" ref="C232:D232" si="145">C189+C210+C230+C231</f>
         <v>-62470</v>
       </c>
       <c r="D232" s="149">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>-6138</v>
       </c>
       <c r="E232" s="149">
@@ -11206,27 +11271,27 @@
       </c>
       <c r="G232" s="149">
         <f ca="1">G189+G210+G230+G231</f>
-        <v>-197481.0778147174</v>
+        <v>95860.294850849488</v>
       </c>
       <c r="H232" s="149">
-        <f t="shared" ref="H232:L232" ca="1" si="147">H189+H210+H230+H231</f>
-        <v>-457597.46555482171</v>
+        <f t="shared" ref="H232:L232" ca="1" si="146">H189+H210+H230+H231</f>
+        <v>-414705.4385265758</v>
       </c>
       <c r="I232" s="149">
-        <f t="shared" ca="1" si="147"/>
-        <v>-145744.0678736085</v>
+        <f t="shared" ca="1" si="146"/>
+        <v>-757.55541267397348</v>
       </c>
       <c r="J232" s="149">
-        <f t="shared" ca="1" si="147"/>
-        <v>-129885.75070356927</v>
+        <f t="shared" ca="1" si="146"/>
+        <v>-68367.817164713633</v>
       </c>
       <c r="K232" s="149">
-        <f t="shared" ca="1" si="147"/>
-        <v>95590.024785953807</v>
+        <f t="shared" ca="1" si="146"/>
+        <v>112525.07917687041</v>
       </c>
       <c r="L232" s="149">
-        <f t="shared" ca="1" si="147"/>
-        <v>53000.910533655318</v>
+        <f t="shared" ca="1" si="146"/>
+        <v>48076.196168762632</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -11251,24 +11316,24 @@
         <v>505264</v>
       </c>
       <c r="H233" s="106">
-        <f t="shared" ref="H233:L233" ca="1" si="148">G234</f>
-        <v>307782.92218528257</v>
+        <f t="shared" ref="H233:L233" ca="1" si="147">G234</f>
+        <v>601124.29485084955</v>
       </c>
       <c r="I233" s="106">
-        <f t="shared" ca="1" si="148"/>
-        <v>-149814.54336953914</v>
+        <f t="shared" ca="1" si="147"/>
+        <v>186418.85632427374</v>
       </c>
       <c r="J233" s="106">
-        <f t="shared" ca="1" si="148"/>
-        <v>-295558.61124314764</v>
+        <f t="shared" ca="1" si="147"/>
+        <v>185661.30091159977</v>
       </c>
       <c r="K233" s="106">
-        <f t="shared" ca="1" si="148"/>
-        <v>-425444.3619467169</v>
+        <f t="shared" ca="1" si="147"/>
+        <v>117293.48374688614</v>
       </c>
       <c r="L233" s="106">
-        <f t="shared" ca="1" si="148"/>
-        <v>-329854.3371607631</v>
+        <f t="shared" ca="1" si="147"/>
+        <v>229818.56292375654</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -11293,27 +11358,27 @@
       </c>
       <c r="G234" s="106">
         <f ca="1">G232+G233</f>
-        <v>307782.92218528257</v>
+        <v>601124.29485084955</v>
       </c>
       <c r="H234" s="106">
-        <f t="shared" ref="H234:L234" ca="1" si="149">H232+H233</f>
-        <v>-149814.54336953914</v>
+        <f t="shared" ref="H234:L234" ca="1" si="148">H232+H233</f>
+        <v>186418.85632427374</v>
       </c>
       <c r="I234" s="106">
-        <f t="shared" ca="1" si="149"/>
-        <v>-295558.61124314764</v>
+        <f t="shared" ca="1" si="148"/>
+        <v>185661.30091159977</v>
       </c>
       <c r="J234" s="106">
-        <f t="shared" ca="1" si="149"/>
-        <v>-425444.3619467169</v>
+        <f t="shared" ca="1" si="148"/>
+        <v>117293.48374688614</v>
       </c>
       <c r="K234" s="106">
-        <f t="shared" ca="1" si="149"/>
-        <v>-329854.3371607631</v>
+        <f t="shared" ca="1" si="148"/>
+        <v>229818.56292375654</v>
       </c>
       <c r="L234" s="106">
-        <f t="shared" ca="1" si="149"/>
-        <v>-276853.42662710778</v>
+        <f t="shared" ca="1" si="148"/>
+        <v>277894.75909251918</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -11373,23 +11438,23 @@
       <c r="F237" s="195"/>
       <c r="G237" s="195">
         <f ca="1">YEARFRAC(TODAY(),DATE(LEFT(G236,4),12,31))</f>
-        <v>0.69444444444444442</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="H237" s="195">
         <f ca="1">YEARFRAC(TODAY(),DATE(LEFT(H236,4),12,31))</f>
-        <v>1.6944444444444444</v>
+        <v>1.675</v>
       </c>
       <c r="I237" s="195">
         <f ca="1">YEARFRAC(TODAY(),DATE(LEFT(I236,4),12,31))</f>
-        <v>2.6944444444444446</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="J237" s="195">
         <f ca="1">YEARFRAC(TODAY(),DATE(LEFT(J236,4),12,31))</f>
-        <v>3.6944444444444446</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="K237" s="195">
         <f ca="1">YEARFRAC(TODAY(),DATE(LEFT(K236,4),12,31))</f>
-        <v>4.6944444444444446</v>
+        <v>4.6749999999999998</v>
       </c>
       <c r="L237" s="195"/>
     </row>
@@ -11403,27 +11468,27 @@
       <c r="F238" s="96"/>
       <c r="G238" s="96">
         <f>'proforma + dcf'!G57</f>
-        <v>247776.4772014778</v>
+        <v>259431.87922142138</v>
       </c>
       <c r="H238" s="96">
         <f>'proforma + dcf'!H57</f>
-        <v>311790.15746308479</v>
+        <v>382003.21800676279</v>
       </c>
       <c r="I238" s="96">
         <f>'proforma + dcf'!I57</f>
-        <v>416109.68762481795</v>
+        <v>569133.21197219554</v>
       </c>
       <c r="J238" s="96">
         <f>'proforma + dcf'!J57</f>
-        <v>503118.52097450814</v>
+        <v>624745.00705420983</v>
       </c>
       <c r="K238" s="96">
         <f>'proforma + dcf'!K57</f>
-        <v>581031.45117916609</v>
+        <v>662229.70747746225</v>
       </c>
       <c r="L238" s="96">
         <f>'proforma + dcf'!L57</f>
-        <v>652802.10899515147</v>
+        <v>675474.30162701162</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -11468,28 +11533,28 @@
       <c r="E240" s="96"/>
       <c r="F240" s="96"/>
       <c r="G240" s="96">
-        <f t="shared" ref="G240:L240" si="150">G238*(1-G239)</f>
-        <v>233150.2910103024</v>
+        <f t="shared" ref="G240:L240" si="149">G238*(1-G239)</f>
+        <v>244117.6774365055</v>
       </c>
       <c r="H240" s="96">
-        <f t="shared" si="150"/>
-        <v>293385.25903552823</v>
+        <f t="shared" si="149"/>
+        <v>359453.65940741339</v>
       </c>
       <c r="I240" s="96">
-        <f t="shared" si="150"/>
-        <v>391546.83228079125</v>
+        <f t="shared" si="149"/>
+        <v>535537.41458292911</v>
       </c>
       <c r="J240" s="96">
-        <f t="shared" si="150"/>
-        <v>473419.55500681355</v>
+        <f t="shared" si="149"/>
+        <v>587866.45870132535</v>
       </c>
       <c r="K240" s="96">
-        <f t="shared" si="150"/>
-        <v>546733.30357508583</v>
+        <f t="shared" si="149"/>
+        <v>623138.44622340472</v>
       </c>
       <c r="L240" s="96">
-        <f t="shared" si="150"/>
-        <v>479809.10897700943</v>
+        <f t="shared" si="149"/>
+        <v>496473.15524057433</v>
       </c>
     </row>
     <row r="241" spans="2:12" x14ac:dyDescent="0.25">
@@ -11506,23 +11571,23 @@
       </c>
       <c r="H241" s="96">
         <f>'proforma + dcf'!H148+'proforma + dcf'!H155+'proforma + dcf'!H158</f>
-        <v>198704.92908643218</v>
+        <v>200590.6903158268</v>
       </c>
       <c r="I241" s="96">
         <f>'proforma + dcf'!I148+'proforma + dcf'!I155+'proforma + dcf'!I158</f>
-        <v>235635.86182575399</v>
+        <v>239614.81801977655</v>
       </c>
       <c r="J241" s="96">
         <f>'proforma + dcf'!J148+'proforma + dcf'!J155+'proforma + dcf'!J158</f>
-        <v>256392.8836787084</v>
+        <v>262959.93586262991</v>
       </c>
       <c r="K241" s="96">
         <f>'proforma + dcf'!K148+'proforma + dcf'!K155+'proforma + dcf'!K158</f>
-        <v>269177.52786264382</v>
+        <v>278695.53201438766</v>
       </c>
       <c r="L241" s="96">
         <f>'proforma + dcf'!L148+'proforma + dcf'!L155+'proforma + dcf'!L158</f>
-        <v>277231.85369852319</v>
+        <v>284255.44265467545</v>
       </c>
     </row>
     <row r="242" spans="2:12" x14ac:dyDescent="0.25">
@@ -11539,23 +11604,23 @@
       </c>
       <c r="H242" s="96">
         <f>-'proforma + dcf'!H206</f>
-        <v>96143.126625000019</v>
+        <v>97058.775450000016</v>
       </c>
       <c r="I242" s="96">
         <f>-'proforma + dcf'!I206</f>
-        <v>114075.28295625001</v>
+        <v>116007.30197700002</v>
       </c>
       <c r="J242" s="96">
         <f>-'proforma + dcf'!J206</f>
-        <v>124154.04710406253</v>
+        <v>127342.74009562003</v>
       </c>
       <c r="K242" s="96">
         <f>-'proforma + dcf'!K206</f>
-        <v>130361.74945926564</v>
+        <v>134983.30450135723</v>
       </c>
       <c r="L242" s="96">
         <f>-'proforma + dcf'!L206</f>
-        <v>134272.60194304364</v>
+        <v>137682.97059138436</v>
       </c>
     </row>
     <row r="243" spans="2:12" x14ac:dyDescent="0.25">
@@ -11601,27 +11666,27 @@
       <c r="F244" s="96"/>
       <c r="G244" s="96">
         <f ca="1">(('proforma + dcf'!G86-'proforma + dcf'!G66)-('proforma + dcf'!G112-'proforma + dcf'!G110))-(('proforma + dcf'!F86-'proforma + dcf'!F66)-('proforma + dcf'!F112-'proforma + dcf'!F110))</f>
-        <v>487212.40149084129</v>
+        <v>204838.41525147785</v>
       </c>
       <c r="H244" s="96">
         <f ca="1">(('proforma + dcf'!H86-'proforma + dcf'!H66)-('proforma + dcf'!H112-'proforma + dcf'!H110))-(('proforma + dcf'!G86-'proforma + dcf'!G66)-('proforma + dcf'!G112-'proforma + dcf'!G110))</f>
-        <v>58944.97948270198</v>
+        <v>44843.644749214407</v>
       </c>
       <c r="I244" s="96">
         <f ca="1">(('proforma + dcf'!I86-'proforma + dcf'!I66)-('proforma + dcf'!I112-'proforma + dcf'!I110))-(('proforma + dcf'!H86-'proforma + dcf'!H66)-('proforma + dcf'!H112-'proforma + dcf'!H110))</f>
-        <v>231493.82271312899</v>
+        <v>169555.02238383959</v>
       </c>
       <c r="J244" s="96">
         <f ca="1">(('proforma + dcf'!J86-'proforma + dcf'!J66)-('proforma + dcf'!J112-'proforma + dcf'!J110))-(('proforma + dcf'!I86-'proforma + dcf'!I66)-('proforma + dcf'!I112-'proforma + dcf'!I110))</f>
-        <v>112724.44067172497</v>
+        <v>108238.82627346879</v>
       </c>
       <c r="K244" s="96">
         <f ca="1">(('proforma + dcf'!K86-'proforma + dcf'!K66)-('proforma + dcf'!K112-'proforma + dcf'!K110))-(('proforma + dcf'!J86-'proforma + dcf'!J66)-('proforma + dcf'!J112-'proforma + dcf'!J110))</f>
-        <v>61466.518205167959</v>
+        <v>73061.426656306954</v>
       </c>
       <c r="L244" s="96">
         <f ca="1">(('proforma + dcf'!L86-'proforma + dcf'!L66)-('proforma + dcf'!L112-'proforma + dcf'!L110))-(('proforma + dcf'!K86-'proforma + dcf'!K66)-('proforma + dcf'!K112-'proforma + dcf'!K110))</f>
-        <v>31232.082564597251</v>
+        <v>25552.170329418266</v>
       </c>
     </row>
     <row r="245" spans="2:12" x14ac:dyDescent="0.25">
@@ -11633,28 +11698,28 @@
       <c r="E245" s="199"/>
       <c r="F245" s="199"/>
       <c r="G245" s="199">
-        <f t="shared" ref="G245:L245" ca="1" si="151">G240+G241-G242-G243-G244</f>
-        <v>-189222.69276968692</v>
+        <f t="shared" ref="G245:L245" ca="1" si="150">G240+G241-G242-G243-G244</f>
+        <v>104118.6798958797</v>
       </c>
       <c r="H245" s="199">
-        <f t="shared" ca="1" si="151"/>
-        <v>328416.37530668767</v>
+        <f t="shared" ca="1" si="150"/>
+        <v>409556.222816455</v>
       </c>
       <c r="I245" s="199">
-        <f t="shared" ca="1" si="151"/>
-        <v>273349.36020772101</v>
+        <f t="shared" ca="1" si="150"/>
+        <v>481325.68001242087</v>
       </c>
       <c r="J245" s="199">
-        <f t="shared" ca="1" si="151"/>
-        <v>484979.16389515623</v>
+        <f t="shared" ca="1" si="150"/>
+        <v>607290.04118028819</v>
       </c>
       <c r="K245" s="199">
-        <f t="shared" ca="1" si="151"/>
-        <v>616274.14535538957</v>
+        <f t="shared" ca="1" si="150"/>
+        <v>685980.82866222167</v>
       </c>
       <c r="L245" s="199">
-        <f t="shared" ca="1" si="151"/>
-        <v>584020.23387305439</v>
+        <f t="shared" ca="1" si="150"/>
+        <v>609977.41267960984</v>
       </c>
     </row>
     <row r="247" spans="2:12" x14ac:dyDescent="0.25">
@@ -11667,27 +11732,27 @@
       <c r="F247" s="196"/>
       <c r="G247" s="196">
         <f ca="1">wacc!C39</f>
-        <v>8.2592342911745373E-2</v>
+        <v>8.2893155095737997E-2</v>
       </c>
       <c r="H247" s="196">
         <f ca="1">($L$247-$G$247)/COUNT($G$245:$L$245)+G247</f>
-        <v>8.506630592658268E-2</v>
+        <v>8.5359565967847731E-2</v>
       </c>
       <c r="I247" s="196">
         <f ca="1">($L$247-$G$247)/COUNT($G$245:$L$245)+H247</f>
-        <v>8.7540268941419988E-2</v>
+        <v>8.7825976839957465E-2</v>
       </c>
       <c r="J247" s="196">
         <f ca="1">($L$247-$G$247)/COUNT($G$245:$L$245)+I247</f>
-        <v>9.0014231956257296E-2</v>
+        <v>9.0292387712067199E-2</v>
       </c>
       <c r="K247" s="196">
         <f ca="1">($L$247-$G$247)/COUNT($G$245:$L$245)+J247</f>
-        <v>9.2488194971094603E-2</v>
+        <v>9.2758798584176932E-2</v>
       </c>
       <c r="L247" s="196">
         <f ca="1">wacc!C40</f>
-        <v>9.7436121000769205E-2</v>
+        <v>9.7691620328396372E-2</v>
       </c>
     </row>
     <row r="248" spans="2:12" x14ac:dyDescent="0.25">
@@ -11700,23 +11765,23 @@
       <c r="F248" s="195"/>
       <c r="G248" s="195">
         <f ca="1">1/POWER(1+G247,G237)</f>
-        <v>0.94638098610237842</v>
+        <v>0.94766472296265614</v>
       </c>
       <c r="H248" s="195">
         <f ca="1">1/POWER(1+H247,H237)</f>
-        <v>0.87080578830203126</v>
+        <v>0.87179456225502439</v>
       </c>
       <c r="I248" s="195">
         <f ca="1">1/POWER(1+I247,I237)</f>
-        <v>0.79762735123603723</v>
+        <v>0.79836876432632786</v>
       </c>
       <c r="J248" s="195">
         <f ca="1">1/POWER(1+J247,J237)</f>
-        <v>0.7272922057506177</v>
+        <v>0.72782932343872542</v>
       </c>
       <c r="K248" s="195">
         <f ca="1">1/POWER(1+K247,K237)</f>
-        <v>0.66016833274158593</v>
+        <v>0.66053957311693434</v>
       </c>
     </row>
     <row r="249" spans="2:12" x14ac:dyDescent="0.25">
@@ -11729,27 +11794,27 @@
       <c r="F249" s="165"/>
       <c r="G249" s="165">
         <f ca="1">G245*G248</f>
-        <v>-179076.75857632371</v>
+        <v>98669.599938766318</v>
       </c>
       <c r="H249" s="165">
         <f ca="1">H245*H248</f>
-        <v>285986.88059023593</v>
+        <v>357048.88798909262</v>
       </c>
       <c r="I249" s="165">
         <f ca="1">I245*I248</f>
-        <v>218030.92614454994</v>
+        <v>384275.3883900459</v>
       </c>
       <c r="J249" s="165">
         <f ca="1">J245*J248</f>
-        <v>352721.56585239852</v>
+        <v>442003.49980332487</v>
       </c>
       <c r="K249" s="165">
         <f ca="1">K245*K248</f>
-        <v>406844.6750510133</v>
+        <v>453117.4837309448</v>
       </c>
       <c r="L249" s="165">
         <f ca="1">L245/(L247-'proforma + dcf'!L5)*'proforma + dcf'!K248</f>
-        <v>5717287.0912745362</v>
+        <v>5186070.4935651347</v>
       </c>
     </row>
     <row r="251" spans="2:12" x14ac:dyDescent="0.25">
@@ -11758,7 +11823,7 @@
       </c>
       <c r="C251" s="96">
         <f ca="1">SUM(G249:L249)</f>
-        <v>6801794.3803364104</v>
+        <v>6921185.353417309</v>
       </c>
       <c r="D251" s="96"/>
       <c r="E251" s="96"/>
@@ -11810,7 +11875,7 @@
       </c>
       <c r="C256" s="96">
         <f ca="1">C251-C252-C253-C254+C255</f>
-        <v>6224594.3803364104</v>
+        <v>6343985.353417309</v>
       </c>
       <c r="D256" s="96"/>
       <c r="E256" s="96"/>
@@ -11840,7 +11905,7 @@
       </c>
       <c r="C259" s="163">
         <f ca="1">C256/C257</f>
-        <v>31.380132084111345</v>
+        <v>31.982019416202323</v>
       </c>
       <c r="D259" s="163"/>
       <c r="E259" s="163"/>
@@ -11852,7 +11917,7 @@
       </c>
       <c r="C260" s="163">
         <f>capstack!C3</f>
-        <v>32.85</v>
+        <v>35.19</v>
       </c>
       <c r="D260" s="163"/>
       <c r="E260" s="163"/>
@@ -11864,26 +11929,26 @@
       </c>
       <c r="C261" s="226">
         <f ca="1">-(C260/C259-1)</f>
-        <v>-4.6840717940537013E-2</v>
+        <v>-0.10030575436935951</v>
       </c>
       <c r="D261" s="200"/>
       <c r="E261" s="200"/>
       <c r="F261" s="200"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UXMB1KR0y1+/RCKe+lpNnmNLzcZGmtfmKaPVbnytp2JPBFoTyu1vtv4WPyQZUn2KZEweJa+Q2TGyKgEBnncSWA==" saltValue="9/OON1WTpusd0vg6o4h4DA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gpMxi97Nl/o4Suu7wwG1jJaoJJVWks/B2S/ds7WOjNsvsUoH2bK6NPcNhpazjQk/koaM+wev8xTCH0GCbwjhvQ==" saltValue="fZXGupJxn54zIRJshbKbvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="X6:X10"/>
     <mergeCell ref="Z4:AD4"/>
     <mergeCell ref="X2:AD2"/>
     <mergeCell ref="Z12:AD12"/>
     <mergeCell ref="X14:X18"/>
     <mergeCell ref="X20:Y21"/>
     <mergeCell ref="Z20:AD21"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="X6:X10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4:V5" xr:uid="{41952A2A-AB1E-48A0-8E92-9FC3A76EF396}">
@@ -11899,7 +11964,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{007AC09E-D41E-4129-9EBD-8BF561A3BC97}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{BD24C93D-1E01-4032-AA67-B0FFB47DD356}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11910,8 +11975,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'proforma + dcf'!G4:L4</xm:f>
-              <xm:sqref>N4</xm:sqref>
+              <xm:f>'proforma + dcf'!G48:L48</xm:f>
+              <xm:sqref>N48</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{6D9C9A14-6753-4145-95AC-082340969CFE}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'proforma + dcf'!G37:L37</xm:f>
+              <xm:sqref>N37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{D9DBD1EA-E07B-4FE1-938D-BCF7C98944AE}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'proforma + dcf'!G29:L29</xm:f>
+              <xm:sqref>N29</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -11931,7 +12028,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{D9DBD1EA-E07B-4FE1-938D-BCF7C98944AE}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{007AC09E-D41E-4129-9EBD-8BF561A3BC97}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11942,12 +12039,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'proforma + dcf'!G29:L29</xm:f>
-              <xm:sqref>N29</xm:sqref>
+              <xm:f>'proforma + dcf'!G4:L4</xm:f>
+              <xm:sqref>N4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{6D9C9A14-6753-4145-95AC-082340969CFE}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{E08B50F2-5123-40FE-936A-69EC603A4556}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11958,12 +12055,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'proforma + dcf'!G37:L37</xm:f>
-              <xm:sqref>N37</xm:sqref>
+              <xm:f>'proforma + dcf'!G16:L16</xm:f>
+              <xm:sqref>N16</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{BD24C93D-1E01-4032-AA67-B0FFB47DD356}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{8BEEE204-4ED5-46B9-BD1F-638B974075D0}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11974,8 +12071,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'proforma + dcf'!G48:L48</xm:f>
-              <xm:sqref>N48</xm:sqref>
+              <xm:f>'proforma + dcf'!G18:L18</xm:f>
+              <xm:sqref>N18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -11989,8 +12086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E65C7F-2B7E-4FB2-B195-94C3E82C78F2}">
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12010,7 +12107,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="100">
-        <v>41.43</v>
+        <v>43.64</v>
       </c>
       <c r="E2" t="s">
         <v>227</v>
@@ -12021,7 +12118,7 @@
         <v>234</v>
       </c>
       <c r="C3" s="100">
-        <v>32.85</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -12061,7 +12158,7 @@
       </c>
       <c r="C6" s="1">
         <f>(H11+H18)*100+H22</f>
-        <v>53443</v>
+        <v>70743</v>
       </c>
       <c r="E6" s="202">
         <v>30.46</v>
@@ -12075,7 +12172,7 @@
       </c>
       <c r="H6" s="124">
         <f>($C$2-E6)*G6</f>
-        <v>1382.2199999999998</v>
+        <v>1660.68</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -12084,7 +12181,7 @@
       </c>
       <c r="C7" s="1">
         <f>C5+C6</f>
-        <v>198476378</v>
+        <v>198493678</v>
       </c>
       <c r="E7" s="202">
         <v>33.01</v>
@@ -12098,7 +12195,7 @@
       </c>
       <c r="H7" s="124">
         <f t="shared" ref="H7:H8" si="1">($C$2-E7)*G7</f>
-        <v>4572.0600000000013</v>
+        <v>5772.0900000000011</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -12114,7 +12211,7 @@
       </c>
       <c r="H8" s="124">
         <f t="shared" si="1"/>
-        <v>1747.6200000000008</v>
+        <v>2876.9300000000012</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -12123,7 +12220,7 @@
       </c>
       <c r="C9" s="1">
         <f>C7*C2/10^3</f>
-        <v>8222876.3405400002</v>
+        <v>8662264.1079200003</v>
       </c>
       <c r="E9" s="202">
         <v>42.27</v>
@@ -12133,11 +12230,11 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="H9" s="124">
         <f>($C$2-E9)*G9</f>
-        <v>0</v>
+        <v>387.7099999999993</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -12146,16 +12243,16 @@
       </c>
       <c r="C10" s="1">
         <f ca="1">I27</f>
-        <v>1068720.1630356896</v>
-      </c>
-      <c r="E10" s="264" t="s">
+        <v>1069104.9904706902</v>
+      </c>
+      <c r="E10" s="267" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="264"/>
-      <c r="G10" s="264"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="267"/>
       <c r="H10" s="124">
         <f>SUM(H6:H9)</f>
-        <v>7701.9000000000015</v>
+        <v>10697.410000000002</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -12164,16 +12261,16 @@
       </c>
       <c r="C11" s="1">
         <f ca="1">I26</f>
-        <v>368124.36262866843</v>
-      </c>
-      <c r="E11" s="265" t="s">
+        <v>569969.69902432349</v>
+      </c>
+      <c r="E11" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="265"/>
-      <c r="G11" s="265"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="268"/>
       <c r="H11" s="124">
         <f>ROUNDDOWN(H10/C2,0)</f>
-        <v>185</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -12182,7 +12279,7 @@
       </c>
       <c r="C12" s="1">
         <f ca="1">C9+C10-C11</f>
-        <v>8923472.1409470215</v>
+        <v>9161399.3993663676</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="6"/>
@@ -12208,7 +12305,7 @@
       </c>
       <c r="C14" s="157">
         <f ca="1">C12/I28</f>
-        <v>3.6841068895046405</v>
+        <v>3.8017120535701276</v>
       </c>
       <c r="E14" s="201">
         <v>20.77</v>
@@ -12222,7 +12319,7 @@
       </c>
       <c r="H14" s="124">
         <f>($C$3-E14)*G14</f>
-        <v>6486.9600000000009</v>
+        <v>7743.5399999999991</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -12231,7 +12328,7 @@
       </c>
       <c r="C15" s="214">
         <f ca="1">C12/I29</f>
-        <v>30.432074643142741</v>
+        <v>31.381030935802865</v>
       </c>
       <c r="E15" s="201">
         <v>29.01</v>
@@ -12245,7 +12342,7 @@
       </c>
       <c r="H15" s="124">
         <f t="shared" ref="H15:H16" si="3">($C$3-E15)*G15</f>
-        <v>2568.96</v>
+        <v>4134.4199999999973</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -12261,7 +12358,7 @@
       </c>
       <c r="H16" s="124">
         <f t="shared" si="3"/>
-        <v>2422.5000000000014</v>
+        <v>4411.4999999999982</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -12271,14 +12368,14 @@
       <c r="C17" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="264" t="s">
+      <c r="E17" s="267" t="s">
         <v>236</v>
       </c>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
+      <c r="F17" s="267"/>
+      <c r="G17" s="267"/>
       <c r="H17" s="124">
         <f>SUM(H14:H16)</f>
-        <v>11478.420000000004</v>
+        <v>16289.459999999994</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -12287,16 +12384,16 @@
       </c>
       <c r="C18" s="203">
         <f>C2</f>
-        <v>41.43</v>
-      </c>
-      <c r="E18" s="265" t="s">
+        <v>43.64</v>
+      </c>
+      <c r="E18" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="F18" s="265"/>
-      <c r="G18" s="265"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="268"/>
       <c r="H18" s="124">
         <f>ROUNDDOWN(H17/C3,0)</f>
-        <v>349</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -12319,7 +12416,7 @@
       </c>
       <c r="H20" s="1">
         <f>H18+H11</f>
-        <v>534</v>
+        <v>707</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -12343,7 +12440,7 @@
       </c>
       <c r="C23" s="1">
         <f>C6/1000</f>
-        <v>53.442999999999998</v>
+        <v>70.742999999999995</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -12352,7 +12449,7 @@
       </c>
       <c r="C24" s="217">
         <f>C22+C23</f>
-        <v>198476.378</v>
+        <v>198493.67799999999</v>
       </c>
       <c r="E24" t="s">
         <v>254</v>
@@ -12380,7 +12477,7 @@
       </c>
       <c r="C26" s="220">
         <f>C24*C18</f>
-        <v>8222876.3405400002</v>
+        <v>8662264.1079200003</v>
       </c>
       <c r="E26" t="s">
         <v>244</v>
@@ -12391,15 +12488,15 @@
       </c>
       <c r="G26" s="124">
         <f ca="1">'proforma + dcf'!G66</f>
-        <v>307782.92218528257</v>
+        <v>601124.29485084955</v>
       </c>
       <c r="H26" s="124">
         <f ca="1">G26-F26</f>
-        <v>-197481.07781471743</v>
+        <v>95860.294850849546</v>
       </c>
       <c r="I26" s="124">
         <f ca="1">H26*$F$30+F26</f>
-        <v>368124.36262866843</v>
+        <v>569969.69902432349</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -12408,7 +12505,7 @@
       </c>
       <c r="C27" s="1">
         <f ca="1">C10*C4</f>
-        <v>1345091.197196719</v>
+        <v>1345575.5410064105</v>
       </c>
       <c r="E27" t="s">
         <v>245</v>
@@ -12427,7 +12524,7 @@
       </c>
       <c r="I27" s="124">
         <f ca="1">H27*$F$30+F27</f>
-        <v>1068720.1630356896</v>
+        <v>1069104.9904706902</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -12436,7 +12533,7 @@
       </c>
       <c r="C28" s="1">
         <f ca="1">C11*C4</f>
-        <v>463321.32280444208</v>
+        <v>717363.86319201346</v>
       </c>
       <c r="E28" t="s">
         <v>253</v>
@@ -12455,7 +12552,7 @@
       </c>
       <c r="I28" s="124">
         <f ca="1">H28*$F$30+F28</f>
-        <v>2422153.4305555555</v>
+        <v>2409808.8624999998</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -12464,7 +12561,7 @@
       </c>
       <c r="C29" s="221">
         <f ca="1">C26+C27-C28</f>
-        <v>9104646.2149322778</v>
+        <v>9290475.7857343964</v>
       </c>
       <c r="E29" t="s">
         <v>280</v>
@@ -12475,15 +12572,15 @@
       </c>
       <c r="G29" s="124">
         <f>'proforma + dcf'!G58</f>
-        <v>437052.60014093702</v>
+        <v>448708.0021608806</v>
       </c>
       <c r="H29" s="124">
         <f t="shared" ref="H29" si="4">G29-F29</f>
-        <v>470705.60014093702</v>
+        <v>482361.0021608806</v>
       </c>
       <c r="I29" s="124">
         <f ca="1">H29*$F$30+F29</f>
-        <v>293225.8889867618</v>
+        <v>291940.67645859445</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -12492,7 +12589,7 @@
       </c>
       <c r="F30" s="189">
         <f ca="1">YEARFRAC(TODAY(),DATE(LEFT(G25,4),12,31))</f>
-        <v>0.69444444444444442</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G30" t="s">
         <v>251</v>
@@ -12513,7 +12610,7 @@
       </c>
       <c r="C32" s="222">
         <f ca="1">C29/I28</f>
-        <v>3.7589056498555489</v>
+        <v>3.8552749681965275</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -12525,7 +12622,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UNEkrd8j5uDlZv+kZcLlcA6jQPKj7DOKnt2LKwskpEgLgFQZOEu5HswCDOJSmEuPg2PnHnsDa+qS9yNCHt1i7g==" saltValue="Dz8cqU+eVXm/2FoBCDdIXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SYkOgBwHZ92V5IiNcy21Ss70UknyvTFrbErjZrI9pHGkg1wXnkB+5D4Vq4nO7WJfP2uyUmmEb1ARrIFZNL/O1g==" saltValue="DMYwPtBPvwI3rTqqxxcmjw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E17:G17"/>
@@ -12538,10 +12635,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB93C08C-4573-4474-B471-5796CE7FD9A9}">
-  <dimension ref="B2:K34"/>
+  <dimension ref="B2:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12614,16 +12711,16 @@
         <v>0.32043163092875493</v>
       </c>
       <c r="F4" s="125">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G4" s="125">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H4" s="125">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I4" s="125">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J4" s="125">
         <v>0.02</v>
@@ -12644,23 +12741,23 @@
       </c>
       <c r="F5" s="124">
         <f>E5*(1+F4)</f>
-        <v>2746946.4750000001</v>
+        <v>2773107.87</v>
       </c>
       <c r="G5" s="124">
         <f>F5*(1+G4)+G3</f>
-        <v>3259293.7987500001</v>
+        <v>3314494.3422000003</v>
       </c>
       <c r="H5" s="124">
         <f t="shared" ref="H5:J5" si="0">G5*(1+H4)+H3</f>
-        <v>3547258.4886875004</v>
+        <v>3638364.0027320003</v>
       </c>
       <c r="I5" s="124">
         <f t="shared" si="0"/>
-        <v>3724621.4131218754</v>
+        <v>3856665.8428959204</v>
       </c>
       <c r="J5" s="124">
         <f t="shared" si="0"/>
-        <v>3799113.8413843131</v>
+        <v>3933799.159753839</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -12804,23 +12901,23 @@
       <c r="E12" s="124"/>
       <c r="F12" s="124">
         <f>F11*$D$13</f>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="G12" s="124">
         <f>G11*$D$13</f>
-        <v>309512.7</v>
+        <v>331560.18</v>
       </c>
       <c r="H12" s="124">
         <f>H11*$D$13</f>
-        <v>294040.35000000003</v>
+        <v>314985.69</v>
       </c>
       <c r="I12" s="124">
         <f>I11*$D$13</f>
-        <v>279356.40000000002</v>
+        <v>299255.76</v>
       </c>
       <c r="J12" s="124">
         <f>J11*$D$13</f>
-        <v>265362.3</v>
+        <v>284264.82</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -12830,7 +12927,7 @@
       <c r="C13"/>
       <c r="D13" s="208">
         <f>capstack!C3</f>
-        <v>32.85</v>
+        <v>35.19</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -12917,19 +13014,19 @@
       </c>
       <c r="F18" s="125">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G18" s="125">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H18" s="125">
         <f>H4</f>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I18" s="125">
         <f>I4</f>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J18" s="125">
         <f>J4</f>
@@ -12951,23 +13048,23 @@
       </c>
       <c r="F19" s="124">
         <f>E19*(1+F18)</f>
-        <v>2746946.4750000001</v>
+        <v>2773107.87</v>
       </c>
       <c r="G19" s="124">
         <f>F19*(1+G18)+G17</f>
-        <v>3259293.7987500001</v>
+        <v>3314494.3422000003</v>
       </c>
       <c r="H19" s="124">
         <f t="shared" ref="H19" si="7">G19*(1+H18)+H17</f>
-        <v>4047258.4886875004</v>
+        <v>4138364.0027320003</v>
       </c>
       <c r="I19" s="124">
         <f t="shared" ref="I19" si="8">H19*(1+I18)+I17</f>
-        <v>4249621.4131218754</v>
+        <v>4386665.8428959204</v>
       </c>
       <c r="J19" s="124">
         <f t="shared" ref="J19" si="9">I19*(1+J18)+J17</f>
-        <v>4334613.8413843131</v>
+        <v>4474399.1597538386</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -13036,21 +13133,24 @@
       </c>
       <c r="F24" s="240">
         <f>F5</f>
-        <v>2746946.4750000001</v>
+        <v>2773107.87</v>
       </c>
       <c r="G24" s="240">
         <f>G5</f>
-        <v>3259293.7987500001</v>
+        <v>3314494.3422000003</v>
       </c>
       <c r="H24" s="240">
         <f>H5</f>
-        <v>3547258.4886875004</v>
+        <v>3638364.0027320003</v>
       </c>
       <c r="I24" s="240">
         <f>I5</f>
-        <v>3724621.4131218754</v>
-      </c>
-      <c r="J24" s="240"/>
+        <v>3856665.8428959204</v>
+      </c>
+      <c r="J24" s="240">
+        <f>'proforma + dcf'!L4</f>
+        <v>3933799.159753839</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="140" t="s">
@@ -13066,21 +13166,24 @@
       </c>
       <c r="F25" s="240">
         <f>F19</f>
-        <v>2746946.4750000001</v>
+        <v>2773107.87</v>
       </c>
       <c r="G25" s="240">
         <f>G19</f>
-        <v>3259293.7987500001</v>
+        <v>3314494.3422000003</v>
       </c>
       <c r="H25" s="240">
         <f>H19</f>
-        <v>4047258.4886875004</v>
+        <v>4138364.0027320003</v>
       </c>
       <c r="I25" s="240">
         <f>I19</f>
-        <v>4249621.4131218754</v>
-      </c>
-      <c r="J25" s="241"/>
+        <v>4386665.8428959204</v>
+      </c>
+      <c r="J25" s="240">
+        <f>J24</f>
+        <v>3933799.159753839</v>
+      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13176,23 +13279,23 @@
       </c>
       <c r="F30" s="240">
         <f>F12</f>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="G30" s="240">
         <f>F30</f>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="H30" s="240">
         <f t="shared" ref="H30:J30" si="11">G30</f>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="I30" s="240">
         <f t="shared" si="11"/>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="J30" s="240">
         <f t="shared" si="11"/>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -13209,23 +13312,23 @@
       </c>
       <c r="F31" s="240">
         <f t="shared" ref="F31:J31" si="12">F30</f>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="G31" s="240">
         <f t="shared" si="12"/>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="H31" s="240">
         <f t="shared" si="12"/>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="I31" s="240">
         <f t="shared" si="12"/>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="J31" s="240">
         <f t="shared" si="12"/>
-        <v>325806.3</v>
+        <v>349014.42</v>
       </c>
       <c r="K31" s="124"/>
     </row>
@@ -13253,24 +13356,21 @@
         <v>0.1374397105703597</v>
       </c>
       <c r="E33" s="243">
-        <f>($J$33-$D$33)/COUNTA($E$23:$J$23)+D33</f>
-        <v>0.1345330921419664</v>
+        <f>($G$33-$D$33)/3+D33</f>
+        <v>0.13162647371357314</v>
       </c>
       <c r="F33" s="243">
-        <f t="shared" ref="F33:I33" si="13">($J$33-$D$33)/COUNTA($E$23:$J$23)+E33</f>
-        <v>0.13162647371357311</v>
+        <f>($G$33-$D$33)/3+E33</f>
+        <v>0.12581323685678658</v>
       </c>
       <c r="G33" s="243">
-        <f t="shared" si="13"/>
-        <v>0.12871985528517982</v>
+        <v>0.12</v>
       </c>
       <c r="H33" s="243">
-        <f t="shared" si="13"/>
-        <v>0.12581323685678653</v>
+        <v>0.12</v>
       </c>
       <c r="I33" s="243">
-        <f t="shared" si="13"/>
-        <v>0.12290661842839325</v>
+        <v>0.12</v>
       </c>
       <c r="J33" s="243">
         <v>0.12</v>
@@ -13283,9 +13383,13 @@
       <c r="C34" s="239">
         <v>2</v>
       </c>
-      <c r="D34" s="243"/>
+      <c r="D34" s="243">
+        <f>D33</f>
+        <v>0.1374397105703597</v>
+      </c>
       <c r="E34" s="243">
-        <v>0.12</v>
+        <f>(F34+D34)/2</f>
+        <v>0.12871985528517985</v>
       </c>
       <c r="F34" s="243">
         <v>0.12</v>
@@ -13303,7 +13407,214 @@
         <v>0.12</v>
       </c>
     </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="245"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="244">
+        <v>1</v>
+      </c>
+      <c r="D36" s="243"/>
+      <c r="E36" s="243">
+        <v>0.24371112353856808</v>
+      </c>
+      <c r="F36" s="243">
+        <f>(G36+E36)/2</f>
+        <v>0.27185556176928405</v>
+      </c>
+      <c r="G36" s="243">
+        <v>0.3</v>
+      </c>
+      <c r="H36" s="243">
+        <v>0.3</v>
+      </c>
+      <c r="I36" s="243">
+        <v>0.3</v>
+      </c>
+      <c r="J36" s="243">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="140" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="244">
+        <v>2</v>
+      </c>
+      <c r="D37" s="243"/>
+      <c r="E37" s="243">
+        <f>E36</f>
+        <v>0.24371112353856808</v>
+      </c>
+      <c r="F37" s="243">
+        <f>(G37+E37)/2</f>
+        <v>0.27185556176928405</v>
+      </c>
+      <c r="G37" s="243">
+        <v>0.3</v>
+      </c>
+      <c r="H37" s="243">
+        <v>0.32</v>
+      </c>
+      <c r="I37" s="243">
+        <f t="shared" ref="I37:J37" si="13">H37</f>
+        <v>0.32</v>
+      </c>
+      <c r="J37" s="243">
+        <f t="shared" si="13"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="245"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="244">
+        <v>1</v>
+      </c>
+      <c r="D39" s="243"/>
+      <c r="E39" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="F39" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="G39" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="H39" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="I39" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="J39" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="140" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="244">
+        <v>2</v>
+      </c>
+      <c r="D40" s="243"/>
+      <c r="E40" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="F40" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="G40" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="H40" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="I40" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+      <c r="J40" s="248">
+        <v>8.6513791682559233</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="245"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="244">
+        <v>1</v>
+      </c>
+      <c r="D42" s="243"/>
+      <c r="E42" s="248">
+        <v>2.1</v>
+      </c>
+      <c r="F42" s="248">
+        <v>2.1</v>
+      </c>
+      <c r="G42" s="248">
+        <v>2.1</v>
+      </c>
+      <c r="H42" s="248">
+        <v>2.1</v>
+      </c>
+      <c r="I42" s="248">
+        <v>2.1</v>
+      </c>
+      <c r="J42" s="248">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="140" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="244">
+        <v>2</v>
+      </c>
+      <c r="D43" s="243"/>
+      <c r="E43" s="248">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F43" s="248">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G43" s="248">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H43" s="248">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I43" s="248">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J43" s="248">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zS89stRbra7NTUUyZ67nsAFeSjv+AzoQkg2s5Pig4369J9tqOdmV5LHY02cFwf2YZ2sFLJ0waRuauxrdpAI4pA==" saltValue="6SpJwpvhgleJtdlpxeu8xQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -13543,7 +13854,7 @@
       <c r="D20" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="78Y4GXEc1uKTo6o9eE8HjNyMyadXi5at4+1LjbiAA6vMaPGA9w9SwWrbqbNNjv6yqSZb6HHG4c/0N+ElzncC2g==" saltValue="6T16njFcPp/+lxAPIo4I5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iAXzbYT29wweYb7nsb0AM884h7mLBZi7gJDg4QxcFjH3msl20VBNYv0/KMbtydDDtW4MQ+dZGXm0GJ/8IqlbkA==" saltValue="HZmfGgBE8LFPaDzqTSZOKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C9" formula="1"/>
@@ -13593,13 +13904,13 @@
       </c>
     </row>
     <row r="2" spans="14:27" x14ac:dyDescent="0.25">
-      <c r="T2" s="266" t="s">
+      <c r="T2" s="269" t="s">
         <v>219</v>
       </c>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
-      <c r="W2" s="266"/>
-      <c r="X2" s="266"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
     </row>
     <row r="3" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
@@ -13658,7 +13969,7 @@
       </c>
       <c r="S4" s="191">
         <f ca="1">YEARFRAC(TODAY(),Q4)</f>
-        <v>3.9444444444444446</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="T4" s="1">
         <f ca="1">IF($S4-T$1&gt;0,$O4*$P4,0)</f>
@@ -13704,7 +14015,7 @@
       </c>
       <c r="S5" s="191">
         <f ca="1">YEARFRAC(TODAY(),Q5)</f>
-        <v>0.94444444444444442</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" ref="T5:T11" ca="1" si="1">IF($S5-T$1&gt;0,$O5*$P5,0)</f>
@@ -13750,7 +14061,7 @@
       </c>
       <c r="S6" s="191">
         <f ca="1">YEARFRAC(TODAY(),Q6)</f>
-        <v>2.2777777777777777</v>
+        <v>2.2583333333333333</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -13796,7 +14107,7 @@
       </c>
       <c r="S7" s="191">
         <f ca="1">YEARFRAC(TODAY(),Q7)</f>
-        <v>5.2777777777777777</v>
+        <v>5.2583333333333337</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -13867,7 +14178,7 @@
       </c>
       <c r="S10" s="191">
         <f ca="1">YEARFRAC(TODAY(),Q10)</f>
-        <v>2.2777777777777777</v>
+        <v>2.2583333333333333</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -13913,7 +14224,7 @@
       </c>
       <c r="S11" s="191">
         <f ca="1">YEARFRAC(TODAY(),Q11)</f>
-        <v>5.2777777777777777</v>
+        <v>5.2583333333333337</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -14025,7 +14336,7 @@
       <c r="AE22" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1BPnvhNQI3eVW8bMvp1htGRSpLtHzZeAQWX1jqPrez87/8MX/4KPbd9iBXOwrfrYLC8EjVyFWDjP6r4u4Sf6rg==" saltValue="bjqOZE+3CwPlNRDRpQEuEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9AT6/OAnuR1fkbu1ODP98xMsAB05oGIurNNMz8H080JSYjdOaH3Uh+LNepO8/e4bdd4ae2Q84O+/mXg2tF46bg==" saltValue="QQeNwBb37rk/auzVNBBpNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="T2:X2"/>
   </mergeCells>
@@ -14235,7 +14546,7 @@
       </c>
       <c r="C32" s="1">
         <f>capstack!C9</f>
-        <v>8222876.3405400002</v>
+        <v>8662264.1079200003</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -14244,7 +14555,7 @@
       </c>
       <c r="C33" s="1">
         <f ca="1">capstack!C10</f>
-        <v>1068720.1630356896</v>
+        <v>1069104.9904706902</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -14253,7 +14564,7 @@
       </c>
       <c r="C35" s="8">
         <f ca="1">C33/SUM(C32:C33)</f>
-        <v>0.11502007890941168</v>
+        <v>0.109861724456376</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -14262,7 +14573,7 @@
       </c>
       <c r="C36" s="8">
         <f ca="1">1-C35</f>
-        <v>0.88497992109058832</v>
+        <v>0.89013827554362401</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -14276,7 +14587,7 @@
       </c>
       <c r="C39" s="207">
         <f ca="1">C35*C29+C17*C36</f>
-        <v>8.2592342911745373E-2</v>
+        <v>8.2893155095737997E-2</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -14285,11 +14596,11 @@
       </c>
       <c r="C40" s="207">
         <f ca="1">C35*C30+C36*C18</f>
-        <v>9.7436121000769205E-2</v>
+        <v>9.7691620328396372E-2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vk+1w61FP0rBscwWI6X+iU7kVOsch0jfws27CcZdERtj6o+Gts1iQcBciPRECEoAgg+0UJpy0f2WKQjC2Svz/g==" saltValue="OMQ0iAAU1FFTEaShOyLQzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GPC91m06yWil12ZGTk0lSJV7oy+l/IMPuIKYa+gAIS4Vp7KgCWwme4xT3QhBJJlg6Os0C46l6KD2eeXuizsncw==" saltValue="ofGLzwx8PJESikuUSROzSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
